--- a/output/frat/fRAT_check_2,3_embeddings.xlsx
+++ b/output/frat/fRAT_check_2,3_embeddings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,16 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>relation_to_solution</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>relation_from_solution</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Accuracy</t>
         </is>
       </c>
@@ -512,7 +522,17 @@
           <t>question is "desires, distinct_from, antonym, related_to" to answer | question is "antonym, related_to, distinct_from" to statement | reply is "related_to, is_a, synonym, antonym" to answer | reply is "related_to" to statement | solution is "synonym, related_to" to answer | solution is "is_a" to statement</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>question "antonym" answer | question "desires" answer | question "distinct_from" answer | question "related_to" answer | question "antonym" statement | question "distinct_from" statement | question "related_to" statement | reply "antonym" answer | reply "related_to" answer | reply "related_to" answer | reply "related_to" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "related_to" statement | solution "related_to" answer | solution "related_to" answer | solution "is_a" statement</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>answer "antonym" question | answer "distinct_from" question | answer "related_to" question | answer "related_to" question | answer "related_to" reply | answer "related_to" reply | answer "synonym" reply | answer "synonym" reply | answer "is_a" reply | answer "related_to" solution | answer "related_to" solution | answer "synonym" solution</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -551,7 +571,17 @@
           <t>question is "related_to" to talk | question is "related_to" to response | question is "desires, distinct_from, antonym, related_to" to answer | question is "related_to" to say | question is "related_to, manner_of, synonym" to ask | question is "related_to" to talking | question is "related_to" to answered | question is "related_to" to answering | question is "motivated_by_goal" to send_e_mail | question is "related_to" to rescript | question is "related_to" to sentences | question is "related_to" to phrase | question is "related_to" to type | question is "related_to" to speech | question is "related_to" to request | question is "related_to, is_a" to sentence | question is "synonym, is_a, related_to" to subject | question is "related_to" to slambook | question is "related_to, form_of" to questions | question is "related_to" to call | question is "antonym, related_to, distinct_from" to statement | question is "synonym, related_to" to inquiry | question is "related_to" to conversation | reply is "related_to" to talk | reply is "synonym, distinct_from, related_to" to response | reply is "related_to, is_a, synonym, antonym" to answer | reply is "related_to" to say | reply is "distinct_from, antonym" to ask | reply is "related_to" to talking | reply is "related_to" to answered | reply is "related_to" to answering | reply is "has_subevent" to send_e_mail | reply is "related_to" to rescript | reply is "related_to" to sentences | reply is "related_to" to phrase | reply is "related_to" to type | reply is "related_to" to speech | reply is "related_to, antonym" to request | reply is "related_to" to sentence | reply is "related_to" to subject | reply is "related_to" to slambook | reply is "related_to" to questions | reply is "related_to" to call | reply is "related_to" to statement | reply is "antonym" to inquiry | reply is "related_to" to conversation</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>question "related_to" talk | question "related_to" response | question "related_to" response | question "antonym" answer | question "desires" answer | question "distinct_from" answer | question "related_to" answer | question "related_to" say | question "related_to" ask | question "synonym" ask | question "manner_of" ask | question "related_to" talking | question "related_to" answered | question "related_to" answering | question "related_to" sentences | question "related_to" phrase | question "related_to" phrase | question "related_to" type | question "related_to" speech | question "related_to" speech | question "related_to" request | question "related_to" sentence | question "related_to" sentence | question "is_a" sentence | question "related_to" subject | question "synonym" subject | question "is_a" subject | question "antonym" statement | question "distinct_from" statement | question "related_to" statement | question "related_to" inquiry | question "synonym" inquiry | question "related_to" conversation | question "related_to" conversation | reply "related_to" talk | reply "distinct_from" response | reply "related_to" response | reply "related_to" response | reply "related_to" response | reply "antonym" answer | reply "related_to" answer | reply "related_to" answer | reply "related_to" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "related_to" say | reply "antonym" ask | reply "distinct_from" ask | reply "related_to" talking | reply "related_to" answered | reply "related_to" answering | reply "related_to" sentences | reply "related_to" phrase | reply "related_to" type | reply "related_to" speech | reply "antonym" request | reply "related_to" request | reply "related_to" request | reply "related_to" sentence | reply "related_to" subject | reply "related_to" questions | reply "related_to" call | reply "related_to" statement | reply "antonym" inquiry | reply "related_to" conversation | reply "related_to" conversation</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>response "related_to" reply | response "synonym" reply | response "synonym" reply | answer "antonym" question | answer "distinct_from" question | answer "related_to" question | answer "related_to" question | answer "related_to" reply | answer "related_to" reply | answer "synonym" reply | answer "synonym" reply | answer "is_a" reply | ask "related_to" question | ask "related_to" question | ask "antonym" reply | send_e_mail "motivated_by_goal" question | send_e_mail "has_subevent" reply | rescript "related_to" question | rescript "related_to" reply | slambook "related_to" question | slambook "related_to" reply | questions "form_of" question | questions "form_of" question | questions "related_to" question | questions "related_to" question | questions "form_of" question | questions "form_of" question | call "related_to" question | inquiry "related_to" question | inquiry "related_to" question | inquiry "synonym" question</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -590,7 +620,17 @@
           <t>question is "desires, distinct_from, antonym, related_to" to answer | question is "antonym, related_to, distinct_from" to statement | question is "is_a, related_to" to problem | question is "causes_desire" to think | question is "related_to, synonym" to issue | question is "related_to, antonym, distinct_from" to reply | solution is "synonym, related_to" to answer | solution is "is_a" to statement | solution is "antonym, related_to, distinct_from" to problem | solution is "has_subevent" to think | solution is "related_to" to issue | solution is "related_to" to reply</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>question "antonym" answer | question "desires" answer | question "distinct_from" answer | question "related_to" answer | question "antonym" statement | question "distinct_from" statement | question "related_to" statement | question "related_to" problem | question "causes_desire" think | question "synonym" issue | question "distinct_from" reply | question "related_to" reply | question "related_to" reply | solution "related_to" answer | solution "related_to" answer | solution "is_a" statement | solution "antonym" problem | solution "antonym" problem | solution "related_to" problem | solution "related_to" problem</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>answer "antonym" question | answer "distinct_from" question | answer "related_to" question | answer "related_to" question | answer "related_to" solution | answer "related_to" solution | answer "synonym" solution | problem "related_to" question | problem "related_to" question | problem "is_a" question | problem "antonym" solution | problem "antonym" solution | problem "distinct_from" solution | problem "related_to" solution | think "has_subevent" solution | issue "related_to" question | issue "related_to" solution | reply "antonym" question | reply "related_to" question | reply "related_to" question | reply "related_to" solution</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -629,7 +669,17 @@
           <t>reply is "related_to, is_a, synonym, antonym" to answer | reply is "related_to" to statement | solution is "synonym, related_to" to answer | solution is "is_a" to statement</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reply "antonym" answer | reply "related_to" answer | reply "related_to" answer | reply "related_to" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "related_to" statement | solution "related_to" answer | solution "related_to" answer | solution "is_a" statement</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>answer "related_to" reply | answer "related_to" reply | answer "synonym" reply | answer "synonym" reply | answer "is_a" reply | answer "related_to" solution | answer "related_to" solution | answer "synonym" solution</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -653,6 +703,8 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -676,6 +728,8 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -699,6 +753,8 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -737,7 +793,17 @@
           <t>sob is "related_to" to loud | sob is "related_to" to heavy | sob is "is_a, related_to" to crying | sob is "related_to" to weeping | sob is "manner_of, related_to, synonym" to cry | sob is "related_to" to loud_crying | sob is "related_to" to heavy_crying | sob is "related_to, derived_from" to sobful | weep is "related_to" to loud | weep is "related_to" to heavy | weep is "related_to" to crying | weep is "form_of, related_to" to weeping | weep is "related_to, synonym" to cry | weep is "related_to" to loud_crying | weep is "related_to" to heavy_crying | weep is "related_to" to sobful</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>sob "related_to" loud | sob "related_to" heavy | sob "related_to" crying | sob "is_a" crying | sob "related_to" weeping | sob "related_to" cry | sob "related_to" cry | sob "manner_of" cry | sob "related_to" loud_crying | sob "related_to" heavy_crying | weep "related_to" loud | weep "related_to" heavy | weep "related_to" crying | weep "related_to" cry | weep "related_to" cry | weep "related_to" cry | weep "synonym" cry | weep "related_to" loud_crying | weep "related_to" heavy_crying</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>weeping "form_of" weep | weeping "related_to" weep | weeping "form_of" weep | cry "related_to" sob | cry "synonym" sob | cry "related_to" weep | cry "related_to" weep | cry "synonym" weep | sobful "derived_from" sob | sobful "related_to" sob | sobful "related_to" weep</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,7 +842,17 @@
           <t>antlers is "related_to" to deer | doe is "is_a, related_to" to deer | fawn is "is_a, related_to" to deer</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>doe "related_to" deer | doe "related_to" deer | doe "is_a" deer | doe "is_a" deer | fawn "is_a" deer | fawn "related_to" deer | fawn "related_to" deer | fawn "is_a" deer | fawn "is_a" deer | fawn "is_a" deer</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>deer "related_to" antlers | deer "related_to" doe | deer "related_to" fawn</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -815,7 +891,17 @@
           <t>antlers is "related_to" to dear | antlers is "related_to" to deer | doe is "related_to" to dear | doe is "is_a, related_to" to deer</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>doe "related_to" deer | doe "related_to" deer | doe "is_a" deer | doe "is_a" deer</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>dear "related_to" antlers | dear "related_to" doe | deer "related_to" antlers | deer "related_to" doe</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,7 +940,17 @@
           <t>antlers is "related_to" to deer | fawn is "is_a, related_to" to deer</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>fawn "is_a" deer | fawn "related_to" deer | fawn "related_to" deer | fawn "is_a" deer | fawn "is_a" deer | fawn "is_a" deer</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>deer "related_to" antlers | deer "related_to" fawn</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -893,7 +989,17 @@
           <t>doe is "synonym" to hind | doe is "related_to" to young | doe is "is_a, related_to" to deer | doe is "related_to" to young_deer | fawn is "distinct_from" to hind | fawn is "related_to" to young | fawn is "is_a, related_to" to deer | fawn is "related_to" to young_deer</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>doe "synonym" hind | doe "related_to" young | doe "related_to" deer | doe "related_to" deer | doe "is_a" deer | doe "is_a" deer | doe "related_to" young_deer | fawn "distinct_from" hind | fawn "related_to" young | fawn "related_to" young | fawn "is_a" deer | fawn "related_to" deer | fawn "related_to" deer | fawn "is_a" deer | fawn "is_a" deer | fawn "is_a" deer | fawn "related_to" young_deer</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>hind "synonym" doe | hind "distinct_from" fawn | deer "related_to" doe | deer "related_to" fawn</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -932,7 +1038,17 @@
           <t>bud is "related_to, is_a" to flower | bud is "related_to" to plant | dandelion is "is_a, related_to" to flower | dandelion is "related_to" to plant | petals is "related_to" to flower | petals is "related_to" to plant</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>bud "related_to" flower | bud "is_a" flower | bud "related_to" plant | dandelion "is_a" flower | dandelion "related_to" flower | dandelion "related_to" flower | dandelion "related_to" plant | dandelion "related_to" plant</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>flower "related_to" bud | flower "related_to" petals | plant "related_to" petals</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -971,7 +1087,17 @@
           <t>bud is "related_to, is_a" to flower | bud is "related_to" to plant | bud is "related_to" to petals | dandelion is "is_a, related_to" to flower | dandelion is "related_to" to plant | dandelion is "related_to" to petals</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>bud "related_to" flower | bud "is_a" flower | bud "related_to" plant | bud "related_to" petals | dandelion "is_a" flower | dandelion "related_to" flower | dandelion "related_to" flower | dandelion "related_to" plant | dandelion "related_to" plant | dandelion "related_to" petals</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>flower "related_to" bud</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,7 +1136,17 @@
           <t>bud is "related_to, is_a" to flower | bud is "related_to" to plant | petals is "related_to" to flower | petals is "related_to" to plant</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>bud "related_to" flower | bud "is_a" flower | bud "related_to" plant</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>flower "related_to" bud | flower "related_to" petals | plant "related_to" petals</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1049,7 +1185,17 @@
           <t>dandelion is "is_a, related_to" to flower | dandelion is "related_to" to plant | petals is "related_to" to flower | petals is "related_to" to plant</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>dandelion "is_a" flower | dandelion "related_to" flower | dandelion "related_to" flower | dandelion "related_to" plant | dandelion "related_to" plant</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>flower "related_to" petals | plant "related_to" petals</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1088,7 +1234,17 @@
           <t>colt is "related_to, is_a" to horse | mare is "related_to, part_of, is_a" to horse | unicorn is "related_to" to horse</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>colt "related_to" horse | colt "related_to" horse | colt "is_a" horse | colt "is_a" horse | mare "is_a" horse | mare "related_to" horse | mare "related_to" horse | mare "is_a" horse | mare "part_of" horse | mare "is_a" horse | unicorn "related_to" horse</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>horse "related_to" colt | horse "related_to" colt | horse "related_to" mare | horse "related_to" mare | horse "related_to" mare | horse "related_to" unicorn</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1127,7 +1283,17 @@
           <t>colt is "related_to, is_a" to horse | colt is "related_to" to filly | colt is "is_a, related_to" to foal | colt is "related_to" to stallion | mare is "related_to, part_of, is_a" to horse | mare is "related_to, is_a" to filly | mare is "similar_to, related_to" to foal | mare is "related_to, antonym" to stallion</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>colt "related_to" horse | colt "related_to" horse | colt "is_a" horse | colt "is_a" horse | colt "is_a" foal | colt "related_to" stallion | mare "is_a" horse | mare "related_to" horse | mare "related_to" horse | mare "is_a" horse | mare "part_of" horse | mare "is_a" horse | mare "similar_to" foal | mare "antonym" stallion</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>horse "related_to" colt | horse "related_to" colt | horse "related_to" mare | horse "related_to" mare | horse "related_to" mare | filly "related_to" colt | filly "related_to" mare | filly "is_a" mare | foal "related_to" colt | foal "related_to" mare | stallion "related_to" colt | stallion "related_to" mare</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1166,7 +1332,17 @@
           <t>colt is "related_to, is_a" to horse | unicorn is "related_to" to horse</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>colt "related_to" horse | colt "related_to" horse | colt "is_a" horse | colt "is_a" horse | unicorn "related_to" horse</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>horse "related_to" colt | horse "related_to" colt | horse "related_to" unicorn</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1205,7 +1381,17 @@
           <t>mare is "is_a" to animal | mare is "related_to, part_of, is_a" to horse | mare is "is_a" to equine | unicorn is "is_a" to animal | unicorn is "related_to" to horse | unicorn is "is_a" to equine</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>mare "is_a" animal | mare "is_a" horse | mare "related_to" horse | mare "related_to" horse | mare "is_a" horse | mare "part_of" horse | mare "is_a" horse | mare "is_a" equine | unicorn "is_a" animal | unicorn "related_to" horse | unicorn "is_a" equine</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>horse "related_to" mare | horse "related_to" mare | horse "related_to" mare | horse "related_to" unicorn</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1229,6 +1415,8 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1252,6 +1440,8 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1290,7 +1480,17 @@
           <t>crown is "related_to" to often | crown is "related_to" to king | crown is "derived_from" to crown_princess | crown is "related_to" to monarch | crown is "related_to" to kind | throne is "related_to" to often | throne is "related_to" to king | throne is "related_to" to crown_princess | throne is "related_to" to monarch | throne is "related_to" to kind</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>crown "related_to" often | crown "related_to" king | crown "related_to" king | crown "related_to" monarch | crown "related_to" kind | throne "related_to" often | throne "related_to" monarch | throne "related_to" kind</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>king "related_to" crown | king "related_to" crown | king "related_to" crown | king "related_to" throne | crown_princess "derived_from" crown | crown_princess "related_to" throne</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1314,6 +1514,8 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,7 +1554,17 @@
           <t>algebra is "has_context, related_to" to mathematics | algebra is "is_a" to pure_mathematics | algebra is "related_to" to geometry | calculus is "has_context, related_to" to mathematics | calculus is "is_a" to pure_mathematics | calculus is "related_to" to geometry | trigonometry is "has_context, related_to" to mathematics | trigonometry is "is_a" to pure_mathematics | trigonometry is "related_to" to geometry</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>algebra "has_context" mathematics | algebra "has_context" mathematics | algebra "is_a" pure_mathematics | algebra "related_to" geometry | calculus "has_context" mathematics | calculus "related_to" mathematics | calculus "has_context" mathematics | calculus "is_a" pure_mathematics | calculus "related_to" geometry | trigonometry "has_context" mathematics | trigonometry "related_to" mathematics | trigonometry "has_context" mathematics | trigonometry "is_a" pure_mathematics | trigonometry "related_to" geometry</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mathematics "related_to" algebra</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1391,7 +1603,17 @@
           <t>algebra is "related_to" to slope | algebra is "is_a" to pure_mathematics | algebra is "related_to" to numbers | algebra is "related_to" to difficult_math | algebra is "has_context, related_to" to mathematics | algebra is "related_to" to geometry | algebra is "has_context" to medicine | algebra is "related_to" to math_class | algebra is "related_to" to advanced_math | algebra is "related_to" to higher_math | algebra is "related_to" to advanced | algebra is "related_to" to math | algebra is "related_to" to subject | algebra is "has_context" to analysis | algebra is "related_to" to math_subject | algebra is "related_to" to school | algebra is "related_to" to higher | algebra is "related_to" to difficult | algebra is "related_to" to class | algebra is "has_context" to unit | calculus is "related_to" to slope | calculus is "is_a" to pure_mathematics | calculus is "related_to" to numbers | calculus is "related_to" to difficult_math | calculus is "has_context, related_to" to mathematics | calculus is "related_to" to geometry | calculus is "has_context" to medicine | calculus is "related_to" to math_class | calculus is "related_to" to advanced_math | calculus is "related_to" to higher_math | calculus is "related_to" to advanced | calculus is "related_to" to math | calculus is "related_to" to subject | calculus is "related_to, is_a" to analysis | calculus is "related_to" to math_subject | calculus is "related_to" to school | calculus is "related_to" to higher | calculus is "related_to, has_property" to difficult | calculus is "related_to" to class | calculus is "related_to" to unit</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>algebra "is_a" pure_mathematics | algebra "related_to" numbers | algebra "related_to" difficult_math | algebra "has_context" mathematics | algebra "has_context" mathematics | algebra "related_to" geometry | algebra "has_context" medicine | algebra "related_to" math_class | algebra "related_to" advanced_math | algebra "related_to" higher_math | algebra "related_to" advanced | algebra "related_to" math | algebra "related_to" subject | algebra "has_context" analysis | algebra "related_to" math_subject | algebra "related_to" school | algebra "related_to" higher | algebra "related_to" difficult | algebra "related_to" class | calculus "is_a" pure_mathematics | calculus "related_to" numbers | calculus "related_to" difficult_math | calculus "has_context" mathematics | calculus "related_to" mathematics | calculus "has_context" mathematics | calculus "related_to" geometry | calculus "has_context" medicine | calculus "related_to" math_class | calculus "related_to" advanced_math | calculus "related_to" higher_math | calculus "related_to" advanced | calculus "related_to" math | calculus "related_to" subject | calculus "related_to" analysis | calculus "related_to" analysis | calculus "related_to" math_subject | calculus "related_to" school | calculus "related_to" higher | calculus "has_property" difficult | calculus "related_to" difficult | calculus "related_to" class | calculus "related_to" unit</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>slope "related_to" algebra | slope "related_to" calculus | mathematics "related_to" algebra | analysis "is_a" calculus | unit "has_context" algebra</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,7 +1652,17 @@
           <t>algebra is "has_context, related_to" to mathematics | algebra is "is_a" to pure_mathematics | algebra is "related_to" to geometry | trigonometry is "has_context, related_to" to mathematics | trigonometry is "is_a" to pure_mathematics | trigonometry is "related_to" to geometry</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>algebra "has_context" mathematics | algebra "has_context" mathematics | algebra "is_a" pure_mathematics | algebra "related_to" geometry | trigonometry "has_context" mathematics | trigonometry "related_to" mathematics | trigonometry "has_context" mathematics | trigonometry "is_a" pure_mathematics | trigonometry "related_to" geometry</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mathematics "related_to" algebra</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1469,7 +1701,17 @@
           <t>calculus is "has_context, related_to" to mathematics | calculus is "related_to" to geometry | calculus is "related_to" to calculation | calculus is "related_to" to sine | calculus is "is_a" to pure_mathematics | trigonometry is "has_context, related_to" to mathematics | trigonometry is "related_to" to geometry | trigonometry is "related_to" to calculation | trigonometry is "related_to, has_context" to sine | trigonometry is "is_a" to pure_mathematics</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>calculus "has_context" mathematics | calculus "related_to" mathematics | calculus "has_context" mathematics | calculus "related_to" geometry | calculus "related_to" calculation | calculus "is_a" pure_mathematics | trigonometry "has_context" mathematics | trigonometry "related_to" mathematics | trigonometry "has_context" mathematics | trigonometry "related_to" geometry | trigonometry "related_to" calculation | trigonometry "is_a" pure_mathematics</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>calculation "related_to" calculus | sine "related_to" calculus | sine "has_context" trigonometry | sine "related_to" trigonometry</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1493,6 +1735,8 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1531,7 +1775,17 @@
           <t>pedal is "related_to, is_a" to lever | pedal is "related_to" to break | pull is "related_to" to lever | pull is "related_to" to break</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>pedal "related_to" lever | pedal "is_a" lever | pull "related_to" lever</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>break "related_to" pedal | break "related_to" pull</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1555,6 +1809,8 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1593,7 +1849,17 @@
           <t>pull is "has_context" to slang | pull is "related_to, antonym" to push | pull is "related_to, is_a, manner_of" to force | shove is "has_context" to slang | shove is "related_to, manner_of, is_a" to push | shove is "related_to" to force</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>pull "has_context" slang | pull "has_context" slang | pull "antonym" push | pull "antonym" push | pull "related_to" push | pull "related_to" force | pull "related_to" force | pull "related_to" force | pull "is_a" force | pull "manner_of" force | shove "has_context" slang | shove "related_to" push | shove "manner_of" push | shove "is_a" push | shove "related_to" force</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>push "related_to" shove | force "related_to" pull | force "related_to" pull</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1617,6 +1883,8 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1655,7 +1923,17 @@
           <t>clockwise is "related_to" to right_handed | clockwise is "related_to" to turn | left is "related_to" to right_handed | left is "is_a, related_to" to turn</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>left "is_a" turn</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>right_handed "related_to" clockwise | right_handed "related_to" left | turn "related_to" clockwise | turn "related_to" left</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1679,6 +1957,8 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1717,7 +1997,17 @@
           <t>left is "related_to" to sinister | left is "related_to" to sinistrously | left is "distinct_from, related_to, antonym" to right | left is "is_a" to position | left is "related_to" to sinistrous | left is "related_to" to side | wrong is "related_to" to sinister | wrong is "related_to" to sinistrously | wrong is "distinct_from, has_property, antonym, related_to" to right | wrong is "related_to" to position | wrong is "related_to" to sinistrous | wrong is "related_to" to side</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>left "antonym" right | left "antonym" right | left "antonym" right | left "antonym" right | left "distinct_from" right | left "related_to" right | left "related_to" right | left "is_a" position | left "related_to" side | wrong "antonym" right | wrong "antonym" right | wrong "distinct_from" right | wrong "has_property" right | wrong "related_to" right | wrong "related_to" right | wrong "related_to" right | wrong "related_to" position</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>sinister "related_to" left | sinister "related_to" wrong | sinistrously "related_to" left | sinistrously "related_to" wrong | right "antonym" left | right "antonym" left | right "antonym" left | right "antonym" left | right "antonym" left | right "distinct_from" left | right "related_to" left | right "antonym" wrong | right "antonym" wrong | right "antonym" wrong | right "antonym" wrong | right "antonym" wrong | right "distinct_from" wrong | right "related_to" wrong | sinistrous "related_to" left | sinistrous "related_to" wrong | side "related_to" left | side "related_to" wrong</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1741,6 +2031,8 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1779,7 +2071,17 @@
           <t>flu is "related_to" to sick | nauseous is "related_to" to sick</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>nauseous "related_to" sick</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>sick "related_to" flu</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1818,7 +2120,17 @@
           <t>flu is "related_to" to disease | flu is "synonym, etymologically_related_to, is_a, related_to, similar_to" to influenza | flu is "not_desires" to person | virus is "related_to, causes" to disease | virus is "related_to, is_a" to influenza | virus is "not_desires" to person</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>flu "etymologically_related_to" influenza | flu "is_a" influenza | flu "related_to" influenza | flu "similar_to" influenza | flu "synonym" influenza | virus "causes" disease</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>disease "related_to" flu | disease "related_to" virus | influenza "related_to" flu | influenza "similar_to" flu | influenza "synonym" flu | influenza "is_a" virus | influenza "related_to" virus | person "not_desires" flu | person "not_desires" virus</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1858,6 +2170,12 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>virose "related_to" nauseous | virose "etymologically_related_to" virus</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,7 +2214,17 @@
           <t>astronomy is "has_context" to celestial_body | astronomy is "related_to, has_context" to star | moon is "related_to" to celestial_body | moon is "related_to, distinct_from" to star | twinkle is "has_context" to celestial_body | twinkle is "related_to" to star</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>astronomy "related_to" star | moon "related_to" celestial_body | moon "related_to" star | twinkle "has_context" celestial_body</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>celestial_body "has_context" astronomy | celestial_body "related_to" moon | star "related_to" astronomy | star "has_context" astronomy | star "distinct_from" moon | star "related_to" moon | star "related_to" twinkle</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1935,7 +2263,17 @@
           <t>astronomy is "has_context" to rupes | astronomy is "has_context" to seleniscope | astronomy is "has_context" to thebe | astronomy is "has_context" to bebhionn | astronomy is "has_context" to sinope | astronomy is "has_context" to triton | astronomy is "has_context" to phoebe | astronomy is "has_context" to selenography | astronomy is "has_context" to lunar_distance | astronomy is "has_context" to elara | astronomy is "has_context" to ingress | astronomy is "has_context" to hiʻiaka | astronomy is "has_context" to hegemone | astronomy is "has_context" to lunar_phase | astronomy is "has_context" to sphere | astronomy is "has_context" to erriapus | astronomy is "has_context" to arche | astronomy is "has_context" to janus | astronomy is "has_context" to charon | astronomy is "has_context" to hyperyon | astronomy is "has_context" to iocaste | astronomy is "has_context" to celestial_body | astronomy is "has_context" to moonlet | astronomy is "has_context" to greip | astronomy is "has_context" to hyrrokin | astronomy is "has_context" to calypso | astronomy is "has_context" to himalia | astronomy is "has_context, is_a" to selenology | astronomy is "has_context" to euanthe | astronomy is "has_context" to pasiphaë | astronomy is "has_context" to ijiraq | astronomy is "has_context" to precession | astronomy is "has_context" to bestla | astronomy is "has_context" to colongitude | astronomy is "has_context" to ananke | astronomy is "has_context" to medicean | astronomy is "has_context" to luminosity | astronomy is "related_to, has_context" to star | astronomy is "has_context" to nutation | astronomy is "has_context" to gibbous | astronomy is "has_context" to siamaq | astronomy is "has_context" to lunar_mansion | astronomy is "has_context" to chaldene | astronomy is "has_context" to planum | astronomy is "has_context" to hunter's_moon | astronomy is "has_context" to juliet | astronomy is "has_context" to digit | astronomy is "has_context" to solar_eclipse | astronomy is "has_context" to mneme | astronomy is "has_context" to kari | astronomy is "has_context" to exomoon | astronomy is "has_context" to lunar | astronomy is "has_context" to annular_eclipse | astronomy is "has_context" to hyperion | astronomy is "has_context" to wane | astronomy is "has_context" to pasithee | astronomy is "has_context" to mercury | astronomy is "has_context" to planetary | astronomy is "has_context" to titan | astronomy is "has_context" to farbauti | astronomy is "has_context" to leda | astronomy is "has_context" to harpalyke | astronomy is "has_context" to iapetus | astronomy is "has_context" to stellar | astronomy is "has_context" to enceladus | astronomy is "has_context" to narvi | astronomy is "has_context" to erinome | astronomy is "related_to" to space | astronomy is "has_context" to terminator | astronomy is "has_context" to megaclite | astronomy is "has_context" to libration | astronomy is "has_context" to halo | astronomy is "has_context" to linea | astronomy is "has_context" to hati | astronomy is "has_context" to thelxinoe | astronomy is "has_context" to suttungr | astronomy is "has_context" to aitne | astronomy is "has_context" to desdemona | astronomy is "related_to" to spherical | astronomy is "has_context" to lunistice | astronomy is "has_context" to adrastea | astronomy is "has_context" to polydeuces | astronomy is "has_context" to herse | astronomy is "has_context" to nearside | astronomy is "has_context" to dwarf_planet | astronomy is "has_context" to europa | astronomy is "has_context" to tholin | astronomy is "has_context" to nix | astronomy is "has_context" to tidal_locking | astronomy is "has_context" to daphnis | astronomy is "has_context" to oberon | astronomy is "has_context" to ring | astronomy is "has_context" to mundilfari | astronomy is "has_context" to earthshine | astronomy is "has_context" to autonoe | astronomy is "related_to" to universe | astronomy is "has_context" to terra | astronomy is "has_context" to eukelade | astronomy is "has_context" to ymir | astronomy is "has_context" to syzygy | astronomy is "has_context" to callirrhoe | astronomy is "has_context" to io | astronomy is "has_context" to thrymr | astronomy is "has_context" to loge | astronomy is "has_context" to hermippe | astronomy is "has_context" to ganymede | astronomy is "has_context" to lunar_occultation | astronomy is "has_context" to skathi | astronomy is "has_context" to kerberos | astronomy is "has_context" to dichotomy | astronomy is "has_context" to planet | astronomy is "has_context" to pallene | astronomy is "has_context" to thyone | astronomy is "has_context" to crater | astronomy is "has_context" to aoede | astronomy is "related_to, has_context" to jupiter | astronomy is "has_context" to rhea | astronomy is "has_context" to surtur | astronomy is "has_context" to kale | astronomy is "related_to" to stars | astronomy is "has_context" to eclipse | astronomy is "has_context" to mons | astronomy is "has_context" to circumjovial | astronomy is "has_context" to sun | astronomy is "has_context" to tritonian | astronomy is "has_context" to sponde | astronomy is "has_context" to supermoon | astronomy is "has_context" to styx | astronomy is "has_context" to theia | astronomy is "has_context" to annulus | astronomy is "has_context" to kalyke | astronomy is "has_context" to carme | astronomy is "has_context" to secondary_planet | astronomy is "has_context" to hercules | astronomy is "has_context" to kore | astronomy is "has_context" to euporie | astronomy is "has_context" to skoll | astronomy is "has_context" to aegir | astronomy is "has_context" to ariel | astronomy is "has_context" to lunar_cataclysm | astronomy is "has_context" to month_of_consecution | astronomy is "has_context" to radiant | astronomy is "has_context" to anthe | astronomy is "has_context" to eurydome | astronomy is "has_context" to orthosie | astronomy is "has_context" to dysnomia | astronomy is "has_context" to fenrir | astronomy is "has_context" to tarvos | astronomy is "has_context" to trojan | astronomy is "has_context" to taygete | astronomy is "has_context" to namaka | astronomy is "has_context" to fornjot | astronomy is "has_context" to praxidike | astronomy is "has_context" to kallichore | astronomy is "has_context" to chasma | astronomy is "has_context" to circle | astronomy is "has_context" to endymion | astronomy is "has_context" to magmasphere | astronomy is "has_context" to zodiac | astronomy is "has_context" to apollo | astronomy is "has_context" to regio | astronomy is "has_context" to callisto | astronomy is "has_context" to cyllene | astronomy is "has_context" to atlas | astronomy is "has_context" to europan | astronomy is "has_context" to dione | astronomy is "has_context" to farside | astronomy is "has_context" to valetudo | astronomy is "has_context" to jarnsaxa | astronomy is "has_context" to lysithea | astronomy is "has_context" to albiorix | astronomy is "has_context" to bergelmir | astronomy is "has_context" to satellite_planet | astronomy is "has_context" to tethys | astronomy is "has_context" to kiviuq | astronomy is "has_context" to paaliaq | astronomy is "has_context" to umbra | astronomy is "has_context" to aegaeon | astronomy is "has_context" to celestial_object | astronomy is "has_context" to dorsum | astronomy is "has_context" to amalthea | astronomy is "has_context" to draconitic_month | astronomy is "has_context" to bernoulli | astronomy is "has_context" to lunar_eclipse | astronomy is "has_context" to isonoe | astronomy is "has_context" to tarqeq | astronomy is "has_context" to apocynthion | astronomy is "has_context" to helike | moon is "related_to" to rupes | moon is "related_to" to seleniscope | moon is "related_to" to thebe | moon is "related_to" to bebhionn | moon is "related_to" to sinope | moon is "related_to" to triton | moon is "related_to" to phoebe | moon is "related_to" to selenography | moon is "related_to" to lunar_distance | moon is "related_to" to elara | moon is "related_to" to ingress | moon is "related_to" to hiʻiaka | moon is "related_to" to hegemone | moon is "related_to" to lunar_phase | moon is "related_to, is_a" to sphere | moon is "related_to" to erriapus | moon is "related_to" to arche | moon is "related_to" to janus | moon is "related_to" to charon | moon is "related_to" to hyperyon | moon is "related_to" to iocaste | moon is "related_to" to celestial_body | moon is "derived_from" to moonlet | moon is "related_to" to greip | moon is "related_to" to hyrrokin | moon is "related_to" to calypso | moon is "related_to" to himalia | moon is "related_to" to selenology | moon is "related_to" to euanthe | moon is "related_to" to pasiphaë | moon is "related_to" to ijiraq | moon is "related_to" to precession | moon is "related_to" to bestla | moon is "related_to" to colongitude | moon is "related_to" to ananke | moon is "related_to" to medicean | moon is "related_to" to luminosity | moon is "related_to, distinct_from" to star | moon is "related_to" to nutation | moon is "related_to" to gibbous | moon is "related_to" to siamaq | moon is "related_to" to lunar_mansion | moon is "related_to" to chaldene | moon is "related_to" to planum | moon is "etymologically_related_to" to hunter's_moon | moon is "related_to" to juliet | moon is "related_to" to digit | moon is "related_to" to solar_eclipse | moon is "related_to" to mneme | moon is "related_to" to kari | moon is "derived_from, related_to" to exomoon | moon is "related_to" to lunar | moon is "related_to" to annular_eclipse | moon is "related_to" to hyperion | moon is "related_to" to wane | moon is "related_to" to pasithee | moon is "related_to" to mercury | moon is "related_to" to planetary | moon is "related_to" to titan | moon is "related_to" to farbauti | moon is "related_to" to leda | moon is "related_to" to harpalyke | moon is "related_to" to iapetus | moon is "related_to" to stellar | moon is "related_to" to enceladus | moon is "related_to" to narvi | moon is "related_to" to erinome | moon is "at_location, related_to" to space | moon is "related_to" to terminator | moon is "related_to" to megaclite | moon is "related_to" to libration | moon is "related_to" to halo | moon is "related_to" to linea | moon is "related_to" to hati | moon is "related_to" to thelxinoe | moon is "related_to" to suttungr | moon is "related_to" to aitne | moon is "related_to" to desdemona | moon is "related_to" to spherical | moon is "related_to" to lunistice | moon is "related_to" to adrastea | moon is "related_to" to polydeuces | moon is "related_to" to herse | moon is "related_to" to nearside | moon is "related_to" to dwarf_planet | moon is "related_to" to europa | moon is "related_to" to tholin | moon is "related_to" to nix | moon is "related_to" to tidal_locking | moon is "related_to" to daphnis | moon is "related_to" to oberon | moon is "related_to" to ring | moon is "related_to" to mundilfari | moon is "related_to" to earthshine | moon is "related_to" to autonoe | moon is "at_location" to universe | moon is "related_to" to terra | moon is "related_to" to eukelade | moon is "related_to" to ymir | moon is "related_to" to syzygy | moon is "related_to" to callirrhoe | moon is "related_to" to io | moon is "related_to" to thrymr | moon is "related_to" to loge | moon is "related_to" to hermippe | moon is "related_to" to ganymede | moon is "related_to" to lunar_occultation | moon is "related_to" to skathi | moon is "related_to" to kerberos | moon is "related_to" to dichotomy | moon is "related_to, is_a, distinct_from" to planet | moon is "related_to" to pallene | moon is "related_to" to thyone | moon is "at_location" to crater | moon is "related_to" to aoede | moon is "related_to" to jupiter | moon is "related_to" to rhea | moon is "related_to" to surtur | moon is "related_to" to kale | moon is "related_to" to stars | moon is "related_to" to eclipse | moon is "related_to" to mons | moon is "related_to" to circumjovial | moon is "antonym, distinct_from, related_to" to sun | moon is "related_to" to tritonian | moon is "related_to" to sponde | moon is "derived_from" to supermoon | moon is "related_to" to styx | moon is "related_to" to theia | moon is "related_to" to annulus | moon is "related_to" to kalyke | moon is "related_to" to carme | moon is "related_to, is_a" to secondary_planet | moon is "related_to, at_location" to hercules | moon is "related_to" to kore | moon is "related_to" to euporie | moon is "related_to" to skoll | moon is "related_to" to aegir | moon is "related_to" to ariel | moon is "related_to" to lunar_cataclysm | moon is "related_to" to month_of_consecution | moon is "has_property" to radiant | moon is "related_to" to anthe | moon is "related_to" to eurydome | moon is "related_to" to orthosie | moon is "related_to" to dysnomia | moon is "related_to" to fenrir | moon is "related_to" to tarvos | moon is "related_to" to trojan | moon is "related_to" to taygete | moon is "related_to" to namaka | moon is "related_to" to fornjot | moon is "related_to" to praxidike | moon is "related_to" to kallichore | moon is "related_to" to chasma | moon is "related_to" to circle | moon is "related_to" to endymion | moon is "related_to" to magmasphere | moon is "related_to" to zodiac | moon is "related_to" to apollo | moon is "related_to" to regio | moon is "related_to" to callisto | moon is "related_to" to cyllene | moon is "related_to, at_location" to atlas | moon is "related_to" to europan | moon is "related_to" to dione | moon is "related_to" to farside | moon is "related_to" to valetudo | moon is "related_to" to jarnsaxa | moon is "related_to" to lysithea | moon is "related_to" to albiorix | moon is "related_to" to bergelmir | moon is "related_to" to satellite_planet | moon is "related_to" to tethys | moon is "related_to" to kiviuq | moon is "related_to" to paaliaq | moon is "related_to" to umbra | moon is "related_to" to aegaeon | moon is "related_to" to celestial_object | moon is "related_to" to dorsum | moon is "related_to" to amalthea | moon is "related_to" to draconitic_month | moon is "related_to" to bernoulli | moon is "related_to" to lunar_eclipse | moon is "related_to" to isonoe | moon is "related_to" to tarqeq | moon is "related_to" to apocynthion | moon is "related_to" to helike</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>astronomy "related_to" star | astronomy "related_to" space | astronomy "related_to" universe | astronomy "related_to" stars | moon "related_to" lunar_phase | moon "is_a" sphere | moon "related_to" sphere | moon "related_to" celestial_body | moon "related_to" luminosity | moon "related_to" star | moon "related_to" lunar | moon "related_to" planetary | moon "related_to" stellar | moon "at_location" space | moon "related_to" space | moon "related_to" spherical | moon "at_location" universe | moon "distinct_from" planet | moon "is_a" planet | moon "related_to" planet | moon "related_to" planet | moon "is_a" planet | moon "related_to" stars | moon "related_to" eclipse | moon "antonym" sun | moon "distinct_from" sun | moon "related_to" sun | moon "has_property" radiant | moon "related_to" circle | moon "related_to" apollo | moon "related_to" celestial_object</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>rupes "has_context" astronomy | rupes "related_to" moon | seleniscope "has_context" astronomy | seleniscope "related_to" moon | thebe "has_context" astronomy | thebe "related_to" moon | bebhionn "has_context" astronomy | bebhionn "related_to" moon | sinope "has_context" astronomy | sinope "related_to" moon | triton "has_context" astronomy | triton "related_to" moon | phoebe "has_context" astronomy | phoebe "related_to" moon | selenography "has_context" astronomy | selenography "related_to" moon | lunar_distance "has_context" astronomy | lunar_distance "related_to" moon | elara "has_context" astronomy | elara "related_to" moon | ingress "has_context" astronomy | ingress "has_context" astronomy | ingress "related_to" moon | hiʻiaka "has_context" astronomy | hiʻiaka "related_to" moon | hegemone "has_context" astronomy | hegemone "related_to" moon | lunar_phase "has_context" astronomy | lunar_phase "related_to" moon | sphere "has_context" astronomy | erriapus "has_context" astronomy | erriapus "related_to" moon | arche "has_context" astronomy | arche "related_to" moon | janus "has_context" astronomy | janus "related_to" moon | charon "has_context" astronomy | charon "related_to" moon | hyperyon "has_context" astronomy | hyperyon "related_to" moon | iocaste "has_context" astronomy | iocaste "related_to" moon | celestial_body "has_context" astronomy | celestial_body "related_to" moon | moonlet "has_context" astronomy | moonlet "derived_from" moon | greip "has_context" astronomy | greip "related_to" moon | hyrrokin "has_context" astronomy | hyrrokin "related_to" moon | calypso "has_context" astronomy | calypso "related_to" moon | himalia "has_context" astronomy | himalia "related_to" moon | selenology "has_context" astronomy | selenology "is_a" astronomy | selenology "related_to" moon | euanthe "has_context" astronomy | euanthe "related_to" moon | pasiphaë "has_context" astronomy | pasiphaë "related_to" moon | ijiraq "has_context" astronomy | ijiraq "related_to" moon | precession "has_context" astronomy | precession "related_to" moon | bestla "has_context" astronomy | bestla "related_to" moon | colongitude "has_context" astronomy | colongitude "related_to" moon | ananke "has_context" astronomy | ananke "related_to" moon | medicean "has_context" astronomy | medicean "related_to" moon | luminosity "has_context" astronomy | star "related_to" astronomy | star "has_context" astronomy | star "distinct_from" moon | star "related_to" moon | nutation "has_context" astronomy | nutation "related_to" moon | gibbous "has_context" astronomy | gibbous "related_to" moon | siamaq "has_context" astronomy | siamaq "related_to" moon | lunar_mansion "has_context" astronomy | lunar_mansion "related_to" moon | chaldene "has_context" astronomy | chaldene "related_to" moon | planum "has_context" astronomy | planum "related_to" moon | hunter's_moon "has_context" astronomy | hunter's_moon "etymologically_related_to" moon | juliet "has_context" astronomy | juliet "related_to" moon | digit "has_context" astronomy | digit "related_to" moon | solar_eclipse "has_context" astronomy | solar_eclipse "related_to" moon | mneme "has_context" astronomy | mneme "related_to" moon | kari "has_context" astronomy | kari "related_to" moon | exomoon "has_context" astronomy | exomoon "derived_from" moon | exomoon "related_to" moon | lunar "has_context" astronomy | lunar "related_to" moon | annular_eclipse "has_context" astronomy | annular_eclipse "related_to" moon | hyperion "has_context" astronomy | hyperion "related_to" moon | wane "has_context" astronomy | wane "related_to" moon | pasithee "has_context" astronomy | pasithee "related_to" moon | mercury "has_context" astronomy | mercury "related_to" moon | planetary "has_context" astronomy | titan "has_context" astronomy | titan "related_to" moon | farbauti "has_context" astronomy | farbauti "related_to" moon | leda "has_context" astronomy | leda "related_to" moon | harpalyke "has_context" astronomy | harpalyke "related_to" moon | iapetus "has_context" astronomy | iapetus "related_to" moon | stellar "has_context" astronomy | enceladus "has_context" astronomy | enceladus "related_to" moon | narvi "has_context" astronomy | narvi "related_to" moon | erinome "has_context" astronomy | erinome "related_to" moon | space "related_to" astronomy | space "related_to" moon | terminator "has_context" astronomy | terminator "related_to" moon | megaclite "has_context" astronomy | megaclite "related_to" moon | libration "has_context" astronomy | libration "has_context" astronomy | libration "related_to" moon | halo "has_context" astronomy | halo "related_to" moon | linea "has_context" astronomy | linea "related_to" moon | hati "has_context" astronomy | hati "related_to" moon | thelxinoe "has_context" astronomy | thelxinoe "related_to" moon | suttungr "has_context" astronomy | suttungr "related_to" moon | aitne "has_context" astronomy | aitne "related_to" moon | desdemona "has_context" astronomy | desdemona "related_to" moon | spherical "related_to" astronomy | lunistice "has_context" astronomy | lunistice "related_to" moon | adrastea "has_context" astronomy | adrastea "related_to" moon | polydeuces "has_context" astronomy | polydeuces "related_to" moon | herse "has_context" astronomy | herse "related_to" moon | nearside "has_context" astronomy | nearside "related_to" moon | dwarf_planet "has_context" astronomy | dwarf_planet "related_to" moon | europa "has_context" astronomy | europa "related_to" moon | tholin "has_context" astronomy | tholin "related_to" moon | nix "has_context" astronomy | nix "related_to" moon | tidal_locking "has_context" astronomy | tidal_locking "related_to" moon | daphnis "has_context" astronomy | daphnis "related_to" moon | oberon "has_context" astronomy | oberon "related_to" moon | ring "has_context" astronomy | ring "related_to" moon | mundilfari "has_context" astronomy | mundilfari "related_to" moon | earthshine "has_context" astronomy | earthshine "related_to" moon | autonoe "has_context" astronomy | autonoe "related_to" moon | terra "has_context" astronomy | terra "related_to" moon | eukelade "has_context" astronomy | eukelade "related_to" moon | ymir "has_context" astronomy | ymir "related_to" moon | syzygy "has_context" astronomy | syzygy "related_to" moon | callirrhoe "has_context" astronomy | callirrhoe "related_to" moon | io "has_context" astronomy | io "related_to" moon | thrymr "has_context" astronomy | thrymr "related_to" moon | loge "has_context" astronomy | loge "related_to" moon | hermippe "has_context" astronomy | hermippe "related_to" moon | ganymede "has_context" astronomy | ganymede "related_to" moon | lunar_occultation "has_context" astronomy | lunar_occultation "related_to" moon | skathi "has_context" astronomy | skathi "related_to" moon | kerberos "has_context" astronomy | kerberos "related_to" moon | dichotomy "has_context" astronomy | dichotomy "related_to" moon | planet "has_context" astronomy | planet "has_context" astronomy | planet "related_to" moon | planet "related_to" moon | pallene "has_context" astronomy | pallene "related_to" moon | thyone "has_context" astronomy | thyone "related_to" moon | crater "has_context" astronomy | crater "at_location" moon | aoede "has_context" astronomy | aoede "related_to" moon | jupiter "has_context" astronomy | jupiter "related_to" astronomy | jupiter "related_to" moon | rhea "has_context" astronomy | rhea "related_to" moon | surtur "has_context" astronomy | surtur "related_to" moon | kale "has_context" astronomy | kale "related_to" moon | eclipse "has_context" astronomy | mons "has_context" astronomy | mons "related_to" moon | circumjovial "has_context" astronomy | circumjovial "has_context" astronomy | circumjovial "related_to" moon | sun "has_context" astronomy | sun "antonym" moon | sun "distinct_from" moon | sun "distinct_from" moon | sun "related_to" moon | tritonian "has_context" astronomy | tritonian "related_to" moon | sponde "has_context" astronomy | sponde "related_to" moon | supermoon "has_context" astronomy | supermoon "derived_from" moon | styx "has_context" astronomy | styx "related_to" moon | theia "has_context" astronomy | theia "related_to" moon | annulus "has_context" astronomy | annulus "related_to" moon | kalyke "has_context" astronomy | kalyke "related_to" moon | carme "has_context" astronomy | carme "related_to" moon | secondary_planet "has_context" astronomy | secondary_planet "is_a" moon | secondary_planet "related_to" moon | hercules "has_context" astronomy | hercules "at_location" moon | hercules "related_to" moon | kore "has_context" astronomy | kore "related_to" moon | euporie "has_context" astronomy | euporie "related_to" moon | skoll "has_context" astronomy | skoll "related_to" moon | aegir "has_context" astronomy | aegir "related_to" moon | ariel "has_context" astronomy | ariel "related_to" moon | lunar_cataclysm "has_context" astronomy | lunar_cataclysm "related_to" moon | month_of_consecution "has_context" astronomy | month_of_consecution "related_to" moon | radiant "has_context" astronomy | anthe "has_context" astronomy | anthe "related_to" moon | eurydome "has_context" astronomy | eurydome "related_to" moon | orthosie "has_context" astronomy | orthosie "related_to" moon | dysnomia "has_context" astronomy | dysnomia "related_to" moon | fenrir "has_context" astronomy | fenrir "related_to" moon | tarvos "has_context" astronomy | tarvos "related_to" moon | trojan "has_context" astronomy | trojan "related_to" moon | taygete "has_context" astronomy | taygete "related_to" moon | namaka "has_context" astronomy | namaka "related_to" moon | fornjot "has_context" astronomy | fornjot "related_to" moon | praxidike "has_context" astronomy | praxidike "related_to" moon | kallichore "has_context" astronomy | kallichore "related_to" moon | chasma "has_context" astronomy | chasma "related_to" moon | circle "has_context" astronomy | endymion "has_context" astronomy | endymion "related_to" moon | magmasphere "has_context" astronomy | magmasphere "related_to" moon | zodiac "has_context" astronomy | zodiac "related_to" moon | apollo "has_context" astronomy | apollo "has_context" astronomy | regio "has_context" astronomy | regio "related_to" moon | callisto "has_context" astronomy | callisto "related_to" moon | cyllene "has_context" astronomy | cyllene "related_to" moon | atlas "has_context" astronomy | atlas "at_location" moon | atlas "related_to" moon | europan "has_context" astronomy | europan "related_to" moon | dione "has_context" astronomy | dione "related_to" moon | farside "has_context" astronomy | farside "related_to" moon | valetudo "has_context" astronomy | valetudo "related_to" moon | jarnsaxa "has_context" astronomy | jarnsaxa "related_to" moon | lysithea "has_context" astronomy | lysithea "related_to" moon | albiorix "has_context" astronomy | albiorix "related_to" moon | bergelmir "has_context" astronomy | bergelmir "related_to" moon | satellite_planet "has_context" astronomy | satellite_planet "related_to" moon | tethys "has_context" astronomy | tethys "related_to" moon | kiviuq "has_context" astronomy | kiviuq "related_to" moon | paaliaq "has_context" astronomy | paaliaq "related_to" moon | umbra "has_context" astronomy | umbra "related_to" moon | aegaeon "has_context" astronomy | aegaeon "related_to" moon | celestial_object "has_context" astronomy | celestial_object "related_to" moon | dorsum "has_context" astronomy | dorsum "related_to" moon | amalthea "has_context" astronomy | amalthea "related_to" moon | draconitic_month "has_context" astronomy | draconitic_month "related_to" moon | bernoulli "has_context" astronomy | bernoulli "related_to" moon | lunar_eclipse "has_context" astronomy | lunar_eclipse "related_to" moon | isonoe "has_context" astronomy | isonoe "related_to" moon | tarqeq "has_context" astronomy | tarqeq "related_to" moon | apocynthion "has_context" astronomy | apocynthion "related_to" moon | helike "has_context" astronomy | helike "related_to" moon</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1974,7 +2312,17 @@
           <t>astronomy is "has_context" to scintillation | astronomy is "has_context" to celestial_body | astronomy is "related_to, has_context" to star | twinkle is "synonym" to scintillation | twinkle is "has_context" to celestial_body | twinkle is "related_to" to star</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>astronomy "related_to" star | twinkle "has_context" celestial_body</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>scintillation "has_context" astronomy | scintillation "synonym" twinkle | celestial_body "has_context" astronomy | star "related_to" astronomy | star "has_context" astronomy | star "related_to" twinkle</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2013,7 +2361,17 @@
           <t>moon is "related_to, distinct_from" to star | moon is "related_to" to bright | moon is "related_to" to light | moon is "related_to" to celestial_body | moon is "used_for, related_to" to sky | twinkle is "related_to" to star | twinkle is "related_to" to bright | twinkle is "related_to" to light | twinkle is "has_context" to celestial_body | twinkle is "related_to" to sky</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>moon "related_to" star | moon "related_to" bright | moon "related_to" light | moon "related_to" celestial_body | moon "related_to" sky | twinkle "related_to" bright | twinkle "related_to" light | twinkle "has_context" celestial_body</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>star "distinct_from" moon | star "related_to" moon | star "related_to" twinkle | celestial_body "related_to" moon | sky "used_for" moon | sky "related_to" twinkle</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2052,7 +2410,17 @@
           <t>bait is "related_to" to fish | bait is "related_to" to water | pond is "related_to, at_location, used_for" to fish | pond is "related_to, has_a" to water | tuna is "related_to, is_a" to fish | tuna is "at_location" to water</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>bait "related_to" fish | bait "related_to" water | pond "related_to" fish | pond "used_for" fish | pond "has_a" water | pond "related_to" water | pond "related_to" water | tuna "related_to" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "at_location" water</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>fish "related_to" bait | fish "at_location" pond | fish "related_to" tuna</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2091,7 +2459,17 @@
           <t>bait is "related_to" to fish | bait is "related_to" to water | bait is "has_prerequisite, related_to" to fishing | pond is "related_to, at_location, used_for" to fish | pond is "related_to, has_a" to water | pond is "used_for" to fishing</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>bait "related_to" fish | bait "related_to" water | pond "related_to" fish | pond "used_for" fish | pond "has_a" water | pond "related_to" water | pond "related_to" water | pond "used_for" fishing</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>fish "related_to" bait | fish "at_location" pond | fishing "has_prerequisite" bait | fishing "related_to" bait</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,7 +2508,17 @@
           <t>bait is "related_to" to fish | bait is "related_to" to water | tuna is "related_to, is_a" to fish | tuna is "at_location" to water</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>bait "related_to" fish | bait "related_to" water | tuna "related_to" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "at_location" water</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>fish "related_to" bait | fish "related_to" tuna</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2169,7 +2557,17 @@
           <t>pond is "related_to, at_location, used_for" to fish | pond is "related_to" to trout | pond is "related_to, has_a" to water | tuna is "related_to, is_a" to fish | tuna is "related_to" to trout | tuna is "at_location" to water</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>pond "related_to" fish | pond "used_for" fish | pond "has_a" water | pond "related_to" water | pond "related_to" water | tuna "related_to" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "at_location" water</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>fish "at_location" pond | fish "related_to" tuna | trout "related_to" pond | trout "related_to" tuna</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2193,6 +2591,8 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2216,6 +2616,8 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2254,7 +2656,17 @@
           <t>bandaid is "form_of" to band_aid | wound is "related_to" to band_aid</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>bandaid "form_of" band_aid</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>band_aid "related_to" wound</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2293,7 +2705,17 @@
           <t>trim is "related_to, is_a" to cut | wound is "related_to, is_a" to cut</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>trim "related_to" cut | trim "related_to" cut | trim "is_a" cut | wound "related_to" cut | wound "related_to" cut</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>cut "related_to" trim | cut "related_to" wound | cut "related_to" wound | cut "is_a" wound</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2332,7 +2754,17 @@
           <t>gravity is "related_to" to down | gravity is "related_to" to ground | gravity is "related_to" to hill | low is "related_to" to down | low is "related_to" to ground | low is "related_to" to hill | up is "antonym, distinct_from, related_to" to down | up is "related_to" to ground | up is "related_to" to hill</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>gravity "related_to" down | low "related_to" down | low "related_to" ground | low "related_to" ground | up "antonym" down | up "antonym" down | up "antonym" down | up "antonym" down | up "distinct_from" down | up "related_to" down</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>down "related_to" low | down "related_to" low | down "related_to" low | down "antonym" up | down "antonym" up | down "antonym" up | down "antonym" up | down "distinct_from" up | down "related_to" up | ground "related_to" gravity | ground "related_to" low | ground "related_to" up | hill "related_to" gravity | hill "related_to" low | hill "related_to" up</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2371,7 +2803,17 @@
           <t>gravity is "related_to" to hill | gravity is "synonym, related_to" to grave | gravity is "related_to" to down | gravity is "related_to" to nadir | gravity is "related_to" to ground | low is "related_to" to hill | low is "related_to" to grave | low is "related_to" to down | low is "related_to" to nadir | low is "related_to" to ground</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>gravity "related_to" grave | gravity "synonym" grave | gravity "related_to" down | low "related_to" grave | low "related_to" down | low "related_to" nadir | low "related_to" ground | low "related_to" ground</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>hill "related_to" gravity | hill "related_to" low | grave "related_to" low | down "related_to" low | down "related_to" low | down "related_to" low | nadir "related_to" gravity | ground "related_to" gravity | ground "related_to" low</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2410,7 +2852,17 @@
           <t>gravity is "related_to" to hill | gravity is "related_to" to downward | gravity is "related_to" to drop | gravity is "related_to" to down | gravity is "has_a, related_to" to earth | gravity is "related_to" to fall | gravity is "related_to" to ground | up is "related_to" to hill | up is "antonym" to downward | up is "related_to, antonym" to drop | up is "antonym, distinct_from, related_to" to down | up is "related_to" to earth | up is "antonym" to fall | up is "related_to" to ground</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>gravity "related_to" downward | gravity "related_to" down | gravity "related_to" earth | up "antonym" down | up "antonym" down | up "antonym" down | up "antonym" down | up "distinct_from" down | up "related_to" down | up "related_to" earth</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>hill "related_to" gravity | hill "related_to" up | downward "antonym" up | drop "related_to" gravity | drop "antonym" up | drop "related_to" up | down "antonym" up | down "antonym" up | down "antonym" up | down "antonym" up | down "distinct_from" up | down "related_to" up | earth "has_a" gravity | fall "related_to" gravity | fall "related_to" gravity | fall "antonym" up | ground "related_to" gravity | ground "related_to" up</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2449,7 +2901,17 @@
           <t>low is "related_to" to altitude | low is "related_to" to hill | low is "has_context" to us | low is "related_to" to gravity | low is "related_to" to direction | low is "antonym, distinct_from, related_to" to high | low is "related_to" to down | low is "has_context" to uk | low is "related_to" to mood | low is "related_to" to ground | low is "related_to" to bottom | low is "related_to" to feet | low is "related_to" to quiet | low is "related_to" to pitch | low is "related_to" to fire | low is "related_to" to volume | low is "related_to" to child | low is "related_to" to admit | low is "distinct_from" to top | low is "related_to" to flow | low is "related_to" to measure | low is "related_to" to horizon | up is "related_to" to altitude | up is "related_to" to hill | up is "has_context" to us | up is "related_to" to gravity | up is "is_a, related_to" to direction | up is "related_to" to high | up is "antonym, distinct_from, related_to" to down | up is "has_context" to uk | up is "related_to" to mood | up is "related_to" to ground | up is "distinct_from" to bottom | up is "related_to" to feet | up is "related_to" to quiet | up is "related_to" to pitch | up is "related_to" to fire | up is "related_to" to volume | up is "antonym" to child | up is "related_to" to admit | up is "related_to" to top | up is "antonym" to flow | up is "related_to" to measure | up is "related_to" to horizon</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>low "related_to" altitude | low "related_to" altitude | low "has_context" us | low "related_to" direction | low "antonym" high | low "antonym" high | low "antonym" high | low "antonym" high | low "distinct_from" high | low "related_to" high | low "related_to" high | low "related_to" down | low "has_context" uk | low "has_context" uk | low "related_to" mood | low "related_to" ground | low "related_to" ground | low "related_to" bottom | low "related_to" bottom | low "related_to" quiet | low "related_to" pitch | low "related_to" fire | low "related_to" volume | low "related_to" admit | low "related_to" measure | low "related_to" horizon | up "has_context" us | up "related_to" gravity | up "is_a" direction | up "related_to" direction | up "related_to" direction | up "related_to" high | up "antonym" down | up "antonym" down | up "antonym" down | up "antonym" down | up "distinct_from" down | up "related_to" down | up "has_context" uk | up "related_to" mood | up "related_to" pitch | up "related_to" volume | up "related_to" top | up "related_to" horizon</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>altitude "related_to" up | hill "related_to" low | hill "related_to" up | gravity "related_to" low | gravity "related_to" up | high "antonym" low | high "antonym" low | high "distinct_from" low | high "distinct_from" low | high "related_to" low | high "related_to" up | high "related_to" up | down "related_to" low | down "related_to" low | down "related_to" low | down "antonym" up | down "antonym" up | down "antonym" up | down "antonym" up | down "distinct_from" up | down "related_to" up | ground "related_to" low | ground "related_to" up | bottom "related_to" low | bottom "distinct_from" up | feet "related_to" low | feet "related_to" up | quiet "related_to" up | pitch "related_to" up | fire "related_to" up | child "related_to" low | child "antonym" up | admit "related_to" up | top "distinct_from" low | top "related_to" up | flow "related_to" low | flow "antonym" up | measure "related_to" up</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2488,7 +2950,17 @@
           <t>emergency is "causes_desire" to run | rapid is "related_to" to run | slow is "related_to" to run</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>emergency "causes_desire" run | slow "related_to" run</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>run "related_to" rapid | run "related_to" rapid | run "related_to" slow</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2527,7 +2999,17 @@
           <t>emergency is "causes_desire" to run | emergency is "related_to" to crash_dive | rapid is "related_to" to run | rapid is "related_to" to crash_dive</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>emergency "causes_desire" run</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>run "related_to" rapid | run "related_to" rapid | crash_dive "related_to" emergency | crash_dive "related_to" rapid</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,7 +3048,17 @@
           <t>emergency is "causes_desire" to run | slow is "related_to" to run</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>emergency "causes_desire" run | slow "related_to" run</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>run "related_to" slow</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2605,7 +3097,17 @@
           <t>rapid is "related_to" to motion | rapid is "related_to" to slack | rapid is "related_to" to crawl | rapid is "related_to, similar_to" to fast | rapid is "related_to" to quickly | rapid is "related_to" to run | rapid is "related_to" to rush | rapid is "related_to" to express | rapid is "related_to" to movement | rapid is "synonym, related_to" to quick | rapid is "related_to" to speed | slow is "related_to" to motion | slow is "synonym" to slack | slow is "related_to" to crawl | slow is "related_to, distinct_from, antonym" to fast | slow is "related_to" to quickly | slow is "related_to" to run | slow is "antonym, related_to" to rush | slow is "distinct_from, antonym" to express | slow is "related_to" to movement | slow is "antonym, related_to, distinct_from" to quick | slow is "related_to" to speed</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>rapid "related_to" motion | rapid "related_to" fast | rapid "similar_to" fast | rapid "related_to" quickly | rapid "related_to" movement | rapid "related_to" quick | rapid "related_to" quick | rapid "related_to" speed | slow "related_to" motion | slow "antonym" fast | slow "antonym" fast | slow "distinct_from" fast | slow "related_to" quickly | slow "related_to" run | slow "related_to" movement | slow "related_to" quick | slow "related_to" speed | slow "related_to" speed</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>motion "related_to" slow | slack "related_to" rapid | slack "synonym" slow | slack "synonym" slow | crawl "related_to" rapid | crawl "related_to" slow | fast "related_to" rapid | fast "related_to" rapid | fast "similar_to" rapid | fast "antonym" slow | fast "antonym" slow | fast "distinct_from" slow | fast "distinct_from" slow | fast "related_to" slow | run "related_to" rapid | run "related_to" rapid | run "related_to" slow | rush "related_to" rapid | rush "related_to" rapid | rush "antonym" slow | rush "related_to" slow | express "related_to" rapid | express "antonym" slow | express "distinct_from" slow | quick "related_to" rapid | quick "related_to" rapid | quick "synonym" rapid | quick "antonym" slow | quick "antonym" slow | quick "distinct_from" slow</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2644,7 +3146,17 @@
           <t>brawl is "is_a, related_to" to fight | debate is "related_to" to fight | soldier is "used_for, related_to, desires" to fight</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>brawl "related_to" fight | brawl "related_to" fight | brawl "related_to" fight | brawl "is_a" fight | debate "related_to" fight | soldier "desires" fight | soldier "related_to" fight | soldier "used_for" fight</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>fight "related_to" brawl</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2683,7 +3195,17 @@
           <t>brawl is "is_a, related_to" to fight | debate is "related_to" to fight</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>brawl "related_to" fight | brawl "related_to" fight | brawl "related_to" fight | brawl "is_a" fight | debate "related_to" fight</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>fight "related_to" brawl</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2722,7 +3244,17 @@
           <t>brawl is "is_a, related_to" to fight | soldier is "used_for, related_to, desires" to fight</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>brawl "related_to" fight | brawl "related_to" fight | brawl "related_to" fight | brawl "is_a" fight | soldier "desires" fight | soldier "related_to" fight | soldier "used_for" fight</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>fight "related_to" brawl</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2761,7 +3293,13 @@
           <t>debate is "related_to" to fight | soldier is "used_for, related_to, desires" to fight</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>debate "related_to" fight | soldier "desires" fight | soldier "related_to" fight | soldier "used_for" fight</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2785,6 +3323,8 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2823,7 +3363,17 @@
           <t>birds is "antonym" to reptile | birds is "has_property" to small | birds is "related_to" to animal | frog is "related_to" to reptile | frog is "related_to" to small | frog is "related_to" to animal</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>birds "has_property" small | frog "related_to" reptile | frog "related_to" small | frog "related_to" animal</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>reptile "antonym" birds | animal "related_to" birds</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2862,7 +3412,17 @@
           <t>birds is "at_location" to park | birds is "at_location" to air | birds is "used_for, related_to, at_location" to sky | birds is "related_to, form_of" to bird | birds is "related_to" to fly | kite is "at_location" to park | kite is "related_to, at_location" to air | kite is "related_to, at_location" to sky | kite is "is_a, related_to" to bird | kite is "manner_of, related_to, capable_of" to fly</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>birds "at_location" park | birds "at_location" air | birds "at_location" sky | birds "form_of" bird | birds "related_to" bird | birds "form_of" bird | kite "at_location" park | kite "at_location" air | kite "related_to" air | kite "at_location" sky | kite "related_to" sky | kite "is_a" bird | kite "related_to" bird | kite "is_a" bird | kite "capable_of" fly | kite "related_to" fly | kite "manner_of" fly</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>sky "related_to" birds | sky "used_for" birds | fly "related_to" birds | fly "related_to" kite</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,6 +3446,8 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,7 +3486,17 @@
           <t>finger is "part_of, related_to, at_location" to hand | glove is "related_to" to hand | palm is "related_to, part_of" to hand</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | glove "related_to" hand | palm "part_of" hand | palm "related_to" hand | palm "part_of" hand</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>hand "related_to" finger | hand "related_to" glove | hand "related_to" palm</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2963,7 +3535,17 @@
           <t>finger is "distinct_from, synonym, related_to, antonym, is_a" to thumb | finger is "has_context" to slang | finger is "related_to, form_of" to fingers | finger is "related_to" to five | finger is "related_to" to batting_glove | finger is "related_to, derived_from" to fingercot | finger is "is_a" to covering | finger is "part_of, related_to, at_location" to hand | finger is "related_to" to half_glove | finger is "related_to" to hands | glove is "part_of" to thumb | glove is "has_context" to slang | glove is "related_to" to fingers | glove is "related_to" to five | glove is "is_a" to batting_glove | glove is "related_to" to fingercot | glove is "related_to" to covering | glove is "related_to" to hand | glove is "related_to" to half_glove | glove is "related_to" to hands</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>finger "antonym" thumb | finger "distinct_from" thumb | finger "related_to" thumb | finger "related_to" thumb | finger "has_context" slang | finger "related_to" five | finger "is_a" covering | finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | finger "related_to" hands | glove "has_context" slang | glove "related_to" fingers | glove "related_to" five | glove "related_to" covering | glove "related_to" hand | glove "related_to" hands</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>thumb "distinct_from" finger | thumb "is_a" finger | thumb "related_to" finger | thumb "is_a" finger | thumb "is_a" finger | thumb "is_a" finger | thumb "synonym" finger | thumb "part_of" glove | fingers "form_of" finger | fingers "form_of" finger | fingers "related_to" finger | fingers "related_to" finger | fingers "form_of" finger | fingers "form_of" finger | batting_glove "related_to" finger | batting_glove "is_a" glove | fingercot "derived_from" finger | fingercot "related_to" finger | fingercot "related_to" glove | hand "related_to" finger | hand "related_to" glove | half_glove "related_to" finger | half_glove "related_to" glove</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3002,7 +3584,17 @@
           <t>finger is "related_to" to fairy_clap | finger is "related_to, is_a" to body_part | finger is "related_to" to triradius | finger is "is_a" to linear_unit | finger is "related_to" to flat | finger is "related_to" to steal | finger is "synonym" to handle | finger is "related_to" to measure | finger is "related_to" to boutonniere_deformity | finger is "related_to" to palmprint | finger is "part_of, related_to, at_location" to hand | finger is "related_to" to snap | finger is "related_to" to dupuytren's_contracture | finger is "related_to" to swan_neck_deformity | finger is "related_to" to roman_salute | finger is "related_to" to v_sign | palm is "related_to" to fairy_clap | palm is "is_a" to body_part | palm is "related_to" to triradius | palm is "is_a" to linear_unit | palm is "related_to" to flat | palm is "related_to" to steal | palm is "synonym" to handle | palm is "related_to" to measure | palm is "related_to" to boutonniere_deformity | palm is "derived_from, related_to" to palmprint | palm is "related_to, part_of" to hand | palm is "related_to" to snap | palm is "related_to" to dupuytren's_contracture | palm is "related_to" to swan_neck_deformity | palm is "related_to" to roman_salute | palm is "related_to" to v_sign</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>finger "related_to" body_part | finger "is_a" body_part | finger "is_a" linear_unit | finger "related_to" steal | finger "related_to" measure | finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | palm "is_a" body_part | palm "is_a" linear_unit | palm "related_to" steal | palm "synonym" handle | palm "related_to" measure | palm "part_of" hand | palm "related_to" hand | palm "part_of" hand</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>fairy_clap "related_to" finger | fairy_clap "related_to" palm | triradius "related_to" finger | triradius "related_to" palm | flat "related_to" finger | flat "related_to" palm | handle "synonym" finger | boutonniere_deformity "related_to" finger | boutonniere_deformity "related_to" palm | palmprint "related_to" finger | palmprint "derived_from" palm | palmprint "related_to" palm | hand "related_to" finger | hand "related_to" palm | snap "related_to" finger | snap "related_to" finger | snap "related_to" palm | dupuytren's_contracture "related_to" finger | dupuytren's_contracture "related_to" palm | swan_neck_deformity "related_to" finger | swan_neck_deformity "related_to" palm | roman_salute "related_to" finger | roman_salute "related_to" palm | v_sign "related_to" finger | v_sign "related_to" palm</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3041,7 +3633,17 @@
           <t>glove is "related_to" to hand | glove is "part_of, related_to, at_location" to finger | glove is "etymologically_related_to" to loof | palm is "related_to, part_of" to hand | palm is "related_to" to finger | palm is "related_to, synonym" to loof</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>glove "related_to" hand | glove "etymologically_related_to" loof | palm "part_of" hand | palm "related_to" hand | palm "part_of" hand | palm "related_to" finger | palm "synonym" loof</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>hand "related_to" glove | hand "related_to" palm | finger "at_location" glove | finger "related_to" glove | finger "part_of" glove | finger "related_to" palm | loof "related_to" palm</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3065,6 +3667,8 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3103,7 +3707,17 @@
           <t>bed is "related_to" to like | bed is "related_to" to nighttime | bed is "related_to" to four | bed is "at_location, has_prerequisite, related_to" to sleeping | bed is "related_to" to night | bed is "at_location" to scary | darkness is "related_to" to like | darkness is "related_to" to nighttime | darkness is "related_to" to four | darkness is "has_prerequisite" to sleeping | darkness is "related_to" to night | darkness is "has_property" to scary</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>bed "related_to" like | bed "related_to" nighttime | bed "related_to" four | bed "related_to" sleeping | bed "related_to" night | darkness "related_to" like | darkness "related_to" four | darkness "related_to" night | darkness "has_property" scary</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>nighttime "related_to" darkness | sleeping "at_location" bed | sleeping "has_prerequisite" bed | sleeping "has_prerequisite" darkness | night "related_to" darkness | night "related_to" darkness | scary "at_location" bed</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,7 +3756,17 @@
           <t>bed is "related_to" to sleeper | bed is "related_to, used_for, antonym" to sleep | sedative is "related_to" to sleeper | sedative is "related_to, causes_desire" to sleep</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>bed "related_to" sleeper | bed "antonym" sleep | bed "related_to" sleep | bed "related_to" sleep | bed "related_to" sleep | bed "used_for" sleep | sedative "causes_desire" sleep | sedative "related_to" sleep</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>sleeper "related_to" sedative | sleep "related_to" bed</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3166,6 +3790,8 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3204,7 +3830,17 @@
           <t>discuss is "related_to" to talk | gossip is "is_a, related_to" to talk | telephone is "related_to" to talk</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>gossip "related_to" talk | telephone "related_to" talk</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>talk "related_to" discuss | talk "related_to" discuss | talk "related_to" discuss | talk "related_to" gossip | talk "related_to" gossip | talk "is_a" gossip</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3243,7 +3879,17 @@
           <t>discuss is "related_to" to chit_chat | discuss is "related_to" to moot | discuss is "related_to" to talk | gossip is "related_to" to chit_chat | gossip is "related_to" to moot | gossip is "is_a, related_to" to talk</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>gossip "related_to" talk</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>chit_chat "related_to" discuss | chit_chat "related_to" gossip | moot "related_to" discuss | moot "related_to" gossip | talk "related_to" discuss | talk "related_to" discuss | talk "related_to" discuss | talk "related_to" gossip | talk "related_to" gossip | talk "is_a" gossip</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,7 +3928,17 @@
           <t>discuss is "related_to" to talk | discuss is "related_to" to communicate | telephone is "related_to" to talk | telephone is "is_a, used_for" to communicate</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>discuss "related_to" communicate | telephone "related_to" talk | telephone "is_a" communicate | telephone "used_for" communicate</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>talk "related_to" discuss | talk "related_to" discuss | talk "related_to" discuss</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3321,7 +3977,17 @@
           <t>gossip is "used_for" to talking | gossip is "is_a, related_to" to talk | telephone is "used_for, related_to" to talking | telephone is "related_to" to talk</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>gossip "related_to" talk | telephone "related_to" talking | telephone "used_for" talking | telephone "related_to" talk</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>talking "used_for" gossip | talk "related_to" gossip | talk "related_to" gossip | talk "is_a" gossip</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3345,6 +4011,8 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3368,6 +4036,8 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3406,7 +4076,17 @@
           <t>fangs is "related_to, form_of" to fang | wolf is "related_to" to fang</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>fangs "form_of" fang | fangs "related_to" fang | fangs "form_of" fang | fangs "form_of" fang</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>fang "related_to" wolf</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3430,6 +4110,8 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3453,6 +4135,8 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3476,6 +4160,8 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3499,6 +4185,8 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3522,6 +4210,8 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3545,6 +4235,8 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3583,7 +4275,17 @@
           <t>dictionary is "related_to" to like | dictionary is "related_to" to grammar | dictionary is "related_to" to bible | dictionary is "related_to, is_a" to book | dictionary is "related_to" to section | verse is "related_to" to like | verse is "related_to" to grammar | verse is "related_to" to bible | verse is "related_to" to book | verse is "related_to" to section</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>dictionary "related_to" like | dictionary "related_to" grammar | dictionary "related_to" bible | dictionary "is_a" book | dictionary "related_to" book | dictionary "related_to" section | verse "related_to" like | verse "related_to" grammar | verse "related_to" bible | verse "related_to" book | verse "related_to" section</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>book "related_to" dictionary</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3622,7 +4324,17 @@
           <t>dictionary is "related_to, is_a" to wordbook | dictionary is "related_to" to lexical | dictionary is "related_to, synonym" to lexicon | dictionary is "related_to" to language | dictionary is "part_of, related_to" to word | dictionary is "related_to" to idioticon | dictionary is "related_to" to lexiconic | dictionary is "related_to" to glossary | vocabulary is "related_to, is_a" to wordbook | vocabulary is "related_to" to lexical | vocabulary is "related_to, synonym, similar_to" to lexicon | vocabulary is "part_of, related_to" to language | vocabulary is "related_to" to word | vocabulary is "synonym" to idioticon | vocabulary is "related_to" to lexiconic | vocabulary is "synonym" to glossary</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>dictionary "is_a" wordbook | dictionary "related_to" lexicon | dictionary "related_to" lexicon | dictionary "related_to" language | dictionary "related_to" word | dictionary "related_to" glossary | vocabulary "is_a" wordbook | vocabulary "similar_to" lexicon | vocabulary "related_to" language | vocabulary "part_of" language | vocabulary "related_to" word | vocabulary "synonym" idioticon | vocabulary "synonym" glossary</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>wordbook "related_to" dictionary | wordbook "related_to" vocabulary | lexical "related_to" dictionary | lexical "related_to" vocabulary | lexicon "related_to" dictionary | lexicon "synonym" dictionary | lexicon "related_to" vocabulary | lexicon "synonym" vocabulary | language "related_to" vocabulary | language "related_to" vocabulary | word "part_of" dictionary | word "related_to" dictionary | word "related_to" vocabulary | idioticon "related_to" dictionary | idioticon "synonym" vocabulary | lexiconic "related_to" dictionary | lexiconic "related_to" vocabulary | glossary "related_to" dictionary | glossary "synonym" vocabulary</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3646,6 +4358,8 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3669,6 +4383,8 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3707,7 +4423,17 @@
           <t>fault is "related_to" to perfect | fault is "related_to" to amiss | fault is "related_to, synonym" to mistake | fault is "derived_from, related_to" to faulty | incorrect is "distinct_from" to perfect | incorrect is "related_to" to amiss | incorrect is "related_to" to mistake | incorrect is "synonym, related_to" to faulty</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>fault "related_to" mistake | fault "synonym" mistake | incorrect "related_to" faulty | incorrect "synonym" faulty</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>perfect "related_to" fault | perfect "distinct_from" incorrect | amiss "related_to" fault | amiss "related_to" incorrect | mistake "related_to" fault | mistake "related_to" incorrect | faulty "derived_from" fault | faulty "derived_from" fault | faulty "related_to" fault</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3731,6 +4457,8 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3769,7 +4497,17 @@
           <t>incorrect is "antonym" to right | incorrect is "related_to, synonym" to wrong | unjust is "related_to" to right | unjust is "synonym, related_to" to wrong</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>incorrect "antonym" right | incorrect "related_to" wrong | unjust "related_to" right | unjust "related_to" wrong</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>wrong "related_to" incorrect | wrong "related_to" incorrect | wrong "synonym" incorrect | wrong "synonym" incorrect | wrong "related_to" unjust | wrong "synonym" unjust | wrong "related_to" unjust</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3793,6 +4531,8 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3816,6 +4556,8 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3839,6 +4581,8 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3878,6 +4622,12 @@
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>run "related_to" operate | run "synonym" operate | run "related_to" vein</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3901,6 +4651,8 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3924,6 +4676,8 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3962,7 +4716,13 @@
           <t>empire is "related_to" to title | empire is "related_to" to king | empire is "related_to" to ruler | empire is "related_to" to royalty | princess is "related_to" to title | princess is "antonym, related_to" to king | princess is "related_to" to ruler | princess is "related_to, is_a" to royalty</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>empire "related_to" title | empire "related_to" king | empire "related_to" ruler | empire "related_to" royalty | princess "related_to" title | princess "antonym" king | princess "related_to" king | princess "related_to" ruler | princess "is_a" royalty | princess "related_to" royalty</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4001,7 +4761,17 @@
           <t>moat is "related_to" to castle | moat is "related_to" to castles | princess is "related_to" to castle | princess is "related_to" to castles</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>moat "related_to" castle | moat "related_to" castles | princess "related_to" castles</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>castle "related_to" moat | castle "related_to" princess</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4040,7 +4810,17 @@
           <t>bench is "related_to" to sitting | bench is "distinct_from, related_to" to chair | bench is "is_a, used_for, related_to" to seat | bench is "is_a" to furniture | sofa is "related_to" to sitting | sofa is "is_a, distinct_from, related_to" to chair | sofa is "is_a, used_for, related_to" to seat | sofa is "has_context, is_a, related_to" to furniture | stool is "related_to" to sitting | stool is "etymologically_related_to, is_a, antonym, synonym, related_to" to chair | stool is "is_a, related_to" to seat | stool is "is_a" to furniture</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>bench "related_to" sitting | bench "distinct_from" chair | bench "related_to" chair | bench "related_to" seat | bench "related_to" seat | bench "is_a" seat | bench "is_a" seat | bench "is_a" seat | bench "used_for" seat | bench "is_a" furniture | sofa "related_to" sitting | sofa "is_a" chair | sofa "related_to" seat | sofa "is_a" seat | sofa "is_a" seat | sofa "used_for" seat | sofa "has_context" furniture | sofa "related_to" furniture | sofa "is_a" furniture | stool "related_to" sitting | stool "related_to" chair | stool "related_to" chair | stool "is_a" seat | stool "related_to" seat | stool "related_to" seat | stool "is_a" seat | stool "is_a" seat | stool "is_a" furniture</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>chair "related_to" bench | chair "related_to" bench | chair "distinct_from" sofa | chair "related_to" sofa | chair "related_to" sofa | chair "antonym" stool | chair "etymologically_related_to" stool | chair "is_a" stool | chair "related_to" stool | chair "related_to" stool | chair "synonym" stool | seat "related_to" bench | seat "related_to" bench | seat "related_to" sofa | seat "related_to" stool | seat "related_to" stool</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4079,7 +4859,17 @@
           <t>bench is "used_for" to sleeping | bench is "related_to" to people | bench is "used_for" to lying_down | bench is "related_to" to tête_à_tête | bench is "is_a, used_for, related_to" to seat | bench is "is_a" to furniture | bench is "related_to" to accubitum | bench is "distinct_from, related_to" to chair | bench is "related_to" to sitting | sofa is "used_for" to sleeping | sofa is "used_for, related_to" to people | sofa is "used_for" to lying_down | sofa is "related_to" to tête_à_tête | sofa is "is_a, used_for, related_to" to seat | sofa is "has_context, is_a, related_to" to furniture | sofa is "related_to" to accubitum | sofa is "is_a, distinct_from, related_to" to chair | sofa is "related_to" to sitting</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>bench "used_for" sleeping | bench "related_to" people | bench "used_for" lying_down | bench "related_to" seat | bench "related_to" seat | bench "is_a" seat | bench "is_a" seat | bench "is_a" seat | bench "used_for" seat | bench "is_a" furniture | bench "distinct_from" chair | bench "related_to" chair | bench "related_to" sitting | sofa "used_for" sleeping | sofa "related_to" people | sofa "used_for" people | sofa "used_for" lying_down | sofa "related_to" seat | sofa "is_a" seat | sofa "is_a" seat | sofa "used_for" seat | sofa "has_context" furniture | sofa "related_to" furniture | sofa "is_a" furniture | sofa "is_a" chair | sofa "related_to" sitting</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>tête_à_tête "related_to" bench | tête_à_tête "related_to" sofa | seat "related_to" bench | seat "related_to" bench | seat "related_to" sofa | accubitum "related_to" bench | accubitum "related_to" sofa | chair "related_to" bench | chair "related_to" bench | chair "distinct_from" sofa | chair "related_to" sofa | chair "related_to" sofa</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4118,7 +4908,17 @@
           <t>bench is "related_to" to chowki | bench is "related_to" to bar | bench is "is_a, used_for, related_to" to seat | bench is "related_to" to sit | bench is "is_a, related_to" to sit_on | bench is "related_to, derived_from" to benchlet | bench is "used_for" to resting | bench is "is_a" to furniture | bench is "distinct_from, related_to" to chair | bench is "related_to" to sitting | stool is "related_to" to chowki | stool is "related_to, at_location" to bar | stool is "is_a, related_to" to seat | stool is "related_to" to sit | stool is "is_a, related_to" to sit_on | stool is "related_to" to benchlet | stool is "used_for" to resting | stool is "is_a" to furniture | stool is "etymologically_related_to, is_a, antonym, synonym, related_to" to chair | stool is "related_to" to sitting</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>bench "related_to" seat | bench "related_to" seat | bench "is_a" seat | bench "is_a" seat | bench "is_a" seat | bench "used_for" seat | bench "related_to" sit | bench "is_a" sit_on | bench "related_to" sit_on | bench "used_for" resting | bench "is_a" furniture | bench "distinct_from" chair | bench "related_to" chair | bench "related_to" sitting | stool "at_location" bar | stool "related_to" bar | stool "is_a" seat | stool "related_to" seat | stool "related_to" seat | stool "is_a" seat | stool "is_a" seat | stool "related_to" sit | stool "is_a" sit_on | stool "related_to" sit_on | stool "used_for" resting | stool "is_a" furniture | stool "related_to" chair | stool "related_to" chair | stool "related_to" sitting</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>chowki "related_to" bench | chowki "related_to" stool | bar "related_to" bench | bar "related_to" stool | seat "related_to" bench | seat "related_to" bench | seat "related_to" stool | seat "related_to" stool | benchlet "derived_from" bench | benchlet "related_to" bench | benchlet "related_to" stool | chair "related_to" bench | chair "related_to" bench | chair "antonym" stool | chair "etymologically_related_to" stool | chair "is_a" stool | chair "related_to" stool | chair "related_to" stool | chair "synonym" stool</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4157,7 +4957,17 @@
           <t>sofa is "related_to" to use | sofa is "has_a" to legs | sofa is "related_to" to ottoman | sofa is "related_to" to back | sofa is "is_a, used_for, related_to" to seat | sofa is "related_to" to building | sofa is "has_context, is_a, related_to" to furniture | sofa is "is_a, distinct_from, related_to" to chair | sofa is "related_to" to sitting | stool is "related_to" to use | stool is "related_to" to legs | stool is "related_to" to ottoman | stool is "related_to" to back | stool is "is_a, related_to" to seat | stool is "at_location" to building | stool is "is_a" to furniture | stool is "etymologically_related_to, is_a, antonym, synonym, related_to" to chair | stool is "related_to" to sitting</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>sofa "related_to" use | sofa "has_a" legs | sofa "related_to" back | sofa "related_to" seat | sofa "is_a" seat | sofa "is_a" seat | sofa "used_for" seat | sofa "related_to" building | sofa "has_context" furniture | sofa "related_to" furniture | sofa "is_a" furniture | sofa "is_a" chair | sofa "related_to" sitting | stool "related_to" use | stool "related_to" legs | stool "related_to" back | stool "is_a" seat | stool "related_to" seat | stool "related_to" seat | stool "is_a" seat | stool "is_a" seat | stool "at_location" building | stool "is_a" furniture | stool "related_to" chair | stool "related_to" chair | stool "related_to" sitting</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ottoman "related_to" sofa | ottoman "related_to" stool | seat "related_to" sofa | seat "related_to" stool | seat "related_to" stool | chair "distinct_from" sofa | chair "related_to" sofa | chair "related_to" sofa | chair "antonym" stool | chair "etymologically_related_to" stool | chair "is_a" stool | chair "related_to" stool | chair "related_to" stool | chair "synonym" stool</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4196,7 +5006,13 @@
           <t>beaker is "related_to, at_location" to laboratory | beaker is "at_location" to lab | flask is "related_to, at_location" to laboratory | flask is "at_location" to lab | science is "related_to" to laboratory | science is "related_to" to lab</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>beaker "at_location" laboratory | beaker "related_to" laboratory | beaker "at_location" lab | flask "at_location" laboratory | flask "related_to" laboratory | flask "at_location" lab | science "related_to" laboratory | science "related_to" lab</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4235,7 +5051,17 @@
           <t>beaker is "related_to" to gauze_mat | beaker is "related_to, at_location" to laboratory | beaker is "derived_from, related_to" to fleaker | beaker is "is_a" to lab_glassware | beaker is "is_a" to jar | beaker is "related_to" to container | beaker is "related_to" to vessel | beaker is "at_location" to lab | beaker is "related_to" to drinking | beaker is "related_to" to rod | beaker is "is_a" to storage_device | beaker is "at_location" to chemistry_lab | beaker is "is_a" to cup | flask is "related_to" to gauze_mat | flask is "related_to, at_location" to laboratory | flask is "related_to, derived_from" to fleaker | flask is "is_a" to lab_glassware | flask is "related_to" to jar | flask is "related_to, is_a" to container | flask is "related_to" to vessel | flask is "at_location" to lab | flask is "used_for, related_to" to drinking | flask is "related_to" to rod | flask is "is_a" to storage_device | flask is "at_location" to chemistry_lab | flask is "related_to" to cup</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>beaker "at_location" laboratory | beaker "related_to" laboratory | beaker "is_a" lab_glassware | beaker "is_a" jar | beaker "related_to" container | beaker "related_to" vessel | beaker "at_location" lab | beaker "related_to" drinking | beaker "is_a" storage_device | beaker "at_location" chemistry_lab | beaker "is_a" cup | flask "at_location" laboratory | flask "related_to" laboratory | flask "is_a" lab_glassware | flask "related_to" jar | flask "is_a" container | flask "related_to" container | flask "related_to" container | flask "related_to" vessel | flask "at_location" lab | flask "related_to" drinking | flask "used_for" drinking | flask "is_a" storage_device | flask "at_location" chemistry_lab | flask "related_to" cup</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>gauze_mat "related_to" beaker | gauze_mat "related_to" flask | fleaker "derived_from" beaker | fleaker "related_to" beaker | fleaker "derived_from" flask | fleaker "related_to" flask | rod "related_to" beaker | rod "related_to" flask</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4274,7 +5100,17 @@
           <t>beaker is "related_to, at_location" to laboratory | beaker is "at_location" to lab | beaker is "related_to" to scientist | beaker is "related_to, form_of" to beakers | science is "related_to" to laboratory | science is "related_to" to lab | science is "related_to" to scientist | science is "related_to" to beakers</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>beaker "at_location" laboratory | beaker "related_to" laboratory | beaker "at_location" lab | beaker "related_to" scientist | science "related_to" laboratory | science "related_to" lab | science "related_to" beakers</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>scientist "related_to" science | beakers "form_of" beaker | beakers "related_to" beaker</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4313,7 +5149,17 @@
           <t>flask is "related_to, at_location" to laboratory | flask is "has_context" to engineering | flask is "has_context" to sciences | flask is "at_location" to lab | flask is "synonym" to vial | flask is "related_to" to scientific | flask is "related_to" to chemistry | science is "related_to" to laboratory | science is "related_to" to engineering | science is "form_of, related_to" to sciences | science is "related_to" to lab | science is "related_to" to vial | science is "related_to" to scientific | science is "used_for, is_a, related_to" to chemistry</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>flask "at_location" laboratory | flask "related_to" laboratory | flask "has_context" engineering | flask "has_context" sciences | flask "at_location" lab | flask "synonym" vial | flask "related_to" scientific | flask "related_to" chemistry | science "related_to" laboratory | science "related_to" lab | science "related_to" scientific | science "related_to" chemistry | science "used_for" chemistry</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>engineering "related_to" science | sciences "form_of" science | sciences "form_of" science | sciences "related_to" science | sciences "form_of" science | vial "synonym" flask | vial "related_to" science | scientific "related_to" science | chemistry "is_a" science | chemistry "related_to" science | chemistry "related_to" science | chemistry "is_a" science</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4337,6 +5183,8 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4360,6 +5208,8 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4383,6 +5233,8 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4406,6 +5258,8 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4429,6 +5283,8 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4452,6 +5308,8 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4475,6 +5333,8 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4513,7 +5373,17 @@
           <t>coma is "at_location" to human | noose is "related_to" to human</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>noose "related_to" human</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>human "at_location" coma</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4537,6 +5407,8 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4560,6 +5432,8 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4583,6 +5457,8 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4621,7 +5497,17 @@
           <t>scare is "synonym, related_to" to terrify | scare is "synonym" to panic | scare is "is_a, related_to" to fear | scare is "related_to" to bad | scare is "related_to" to bomb | scare is "related_to" to afraid | scare is "synonym" to dismay | scare is "synonym, related_to" to fright | scare is "related_to, derived_from, etymologically_related_to" to scary | terror is "related_to" to terrify | terror is "synonym" to panic | terror is "related_to" to fear | terror is "related_to" to bad | terror is "used_for" to bomb | terror is "related_to" to afraid | terror is "related_to" to dismay | terror is "related_to" to fright | terror is "related_to" to scary</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>scare "related_to" terrify | scare "synonym" terrify | scare "synonym" panic | scare "related_to" fear | scare "is_a" fear | scare "related_to" bad | scare "related_to" afraid | scare "related_to" fright | scare "related_to" fright | scare "synonym" fright | scare "related_to" scary | terror "related_to" terrify | terror "synonym" panic | terror "related_to" fear | terror "related_to" fear | terror "related_to" bad | terror "related_to" afraid | terror "related_to" dismay | terror "related_to" fright | terror "related_to" fright | terror "related_to" scary</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>terrify "synonym" scare | terrify "related_to" terror | fear "related_to" scare | fear "related_to" terror | bomb "related_to" scare | bomb "used_for" terror | dismay "synonym" scare | fright "related_to" terror | scary "derived_from" scare | scary "etymologically_related_to" scare</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4660,7 +5546,17 @@
           <t>hand is "at_location, part_of, related_to" to finger | toe is "similar_to, synonym, distinct_from, antonym, related_to" to finger | trigger is "related_to" to finger</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>hand "related_to" finger | toe "antonym" finger | toe "related_to" finger | toe "similar_to" finger | trigger "related_to" finger</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | finger "antonym" toe | finger "distinct_from" toe | finger "distinct_from" toe | finger "related_to" toe | finger "synonym" toe</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4699,7 +5595,17 @@
           <t>hand is "related_to" to set | hand is "related_to" to interdigit | hand is "at_location, part_of, related_to" to finger | hand is "antonym, related_to" to body_part | hand is "related_to" to didactylism | hand is "related_to" to five | hand is "related_to" to digits | hand is "related_to" to have | hand is "related_to" to fingers | hand is "related_to" to ten | hand is "related_to" to ending | hand is "related_to" to acroataxia | hand is "related_to" to together | hand is "related_to, distinct_from, antonym" to foot | hand is "related_to" to five_digits | hand is "distinct_from, related_to, antonym" to feet | hand is "related_to, is_a" to extremity | hand is "related_to" to pedimanous | hand is "related_to" to limb | hand is "related_to" to pinkie | hand is "antonym, related_to" to part | hand is "is_a" to anatomical_structure | hand is "related_to, part_of, antonym" to body | hand is "related_to" to head | hand is "related_to" to touch | hand is "antonym, related_to, distinct_from" to leg | hand is "related_to, is_a" to appendage | hand is "related_to" to sexdigitist | hand is "related_to" to sexdigitism | hand is "related_to" to thumb | hand is "related_to" to sexdigital | hand is "related_to" to digit | toe is "related_to" to set | toe is "related_to" to interdigit | toe is "similar_to, synonym, distinct_from, antonym, related_to" to finger | toe is "related_to, is_a" to body_part | toe is "related_to" to didactylism | toe is "related_to" to five | toe is "related_to" to digits | toe is "related_to" to have | toe is "antonym, related_to, distinct_from" to fingers | toe is "related_to" to ten | toe is "related_to" to ending | toe is "related_to" to acroataxia | toe is "related_to" to together | toe is "part_of, related_to, at_location" to foot | toe is "related_to" to five_digits | toe is "related_to" to feet | toe is "related_to, is_a" to extremity | toe is "related_to" to pedimanous | toe is "related_to" to limb | toe is "related_to" to pinkie | toe is "related_to, is_a" to part | toe is "is_a" to anatomical_structure | toe is "related_to, part_of" to body | toe is "antonym" to head | toe is "manner_of" to touch | toe is "distinct_from" to leg | toe is "related_to" to appendage | toe is "related_to" to sexdigitist | toe is "related_to" to sexdigitism | toe is "related_to" to thumb | toe is "related_to" to sexdigital | toe is "related_to, is_a" to digit</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>hand "related_to" finger | hand "antonym" body_part | hand "related_to" body_part | hand "related_to" five | hand "related_to" digits | hand "related_to" have | hand "related_to" fingers | hand "related_to" ten | hand "related_to" ending | hand "related_to" together | hand "antonym" foot | hand "distinct_from" foot | hand "related_to" foot | hand "related_to" foot | hand "related_to" five_digits | hand "antonym" feet | hand "distinct_from" feet | hand "related_to" feet | hand "related_to" extremity | hand "is_a" extremity | hand "related_to" limb | hand "related_to" limb | hand "antonym" part | hand "related_to" part | hand "is_a" anatomical_structure | hand "antonym" body | hand "part_of" body | hand "related_to" body | hand "related_to" head | hand "related_to" touch | hand "related_to" touch | hand "antonym" leg | hand "distinct_from" leg | hand "related_to" leg | hand "related_to" appendage | hand "is_a" appendage | hand "related_to" thumb | hand "related_to" digit | toe "related_to" set | toe "antonym" finger | toe "related_to" finger | toe "similar_to" finger | toe "related_to" body_part | toe "is_a" body_part | toe "related_to" five | toe "related_to" digits | toe "related_to" digits | toe "related_to" have | toe "antonym" fingers | toe "distinct_from" fingers | toe "related_to" fingers | toe "related_to" ten | toe "related_to" ending | toe "related_to" together | toe "at_location" foot | toe "part_of" foot | toe "part_of" foot | toe "related_to" foot | toe "related_to" foot | toe "part_of" foot | toe "related_to" five_digits | toe "related_to" feet | toe "related_to" extremity | toe "is_a" extremity | toe "related_to" limb | toe "related_to" part | toe "related_to" part | toe "is_a" part | toe "is_a" anatomical_structure | toe "part_of" body | toe "related_to" body | toe "manner_of" touch | toe "related_to" appendage | toe "related_to" thumb | toe "related_to" digit | toe "is_a" digit | toe "is_a" digit | toe "is_a" digit</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>set "related_to" hand | interdigit "related_to" hand | interdigit "related_to" toe | finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | finger "antonym" toe | finger "distinct_from" toe | finger "distinct_from" toe | finger "related_to" toe | finger "synonym" toe | didactylism "related_to" hand | didactylism "related_to" toe | five "related_to" hand | acroataxia "related_to" hand | acroataxia "related_to" toe | foot "antonym" hand | foot "distinct_from" hand | foot "related_to" hand | foot "related_to" toe | feet "antonym" hand | feet "distinct_from" hand | feet "related_to" hand | feet "related_to" toe | pedimanous "related_to" hand | pedimanous "related_to" toe | pinkie "related_to" hand | pinkie "related_to" toe | body "related_to" toe | head "antonym" toe | touch "related_to" hand | touch "related_to" hand | leg "antonym" hand | leg "distinct_from" hand | leg "related_to" hand | leg "distinct_from" toe | sexdigitist "related_to" hand | sexdigitist "related_to" toe | sexdigitism "related_to" hand | sexdigitism "related_to" toe | thumb "related_to" hand | thumb "related_to" toe | sexdigital "related_to" hand | sexdigital "related_to" toe | digit "related_to" hand | digit "related_to" toe</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4738,7 +5644,17 @@
           <t>hand is "at_location, part_of, related_to" to finger | hand is "related_to" to trick | hand is "related_to" to device | hand is "related_to" to component | hand is "related_to" to gun | hand is "related_to" to present_arms | trigger is "related_to" to finger | trigger is "etymologically_related_to" to trick | trigger is "is_a, related_to" to device | trigger is "related_to" to component | trigger is "part_of, related_to" to gun | trigger is "related_to" to present_arms</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>hand "related_to" finger | hand "related_to" device | hand "related_to" component | trigger "related_to" finger | trigger "related_to" device | trigger "is_a" device | trigger "related_to" component | trigger "part_of" gun | trigger "related_to" gun</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | trick "related_to" hand | trick "etymologically_related_to" trigger | gun "related_to" hand | gun "related_to" trigger | present_arms "related_to" hand | present_arms "related_to" trigger</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4777,7 +5693,17 @@
           <t>toe is "similar_to, synonym, distinct_from, antonym, related_to" to finger | toe is "related_to" to wheel | trigger is "related_to" to finger | trigger is "related_to" to wheel</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>toe "antonym" finger | toe "related_to" finger | toe "similar_to" finger | toe "related_to" wheel | trigger "related_to" finger | trigger "related_to" wheel</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>finger "antonym" toe | finger "distinct_from" toe | finger "distinct_from" toe | finger "related_to" toe | finger "synonym" toe</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4816,7 +5742,13 @@
           <t>angel is "related_to" to religious | church is "related_to" to religious | faith is "related_to" to religious</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>angel "related_to" religious | church "related_to" religious | church "related_to" religious | church "related_to" religious | faith "related_to" religious | faith "related_to" religious</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4855,7 +5787,17 @@
           <t>angel is "related_to" to gold | angel is "related_to" to bible | angel is "related_to" to bell | angel is "related_to" to choir | angel is "related_to" to religious | angel is "related_to" to titular | angel is "has_context" to historical | angel is "related_to" to england | angel is "related_to" to evangelist | church is "at_location" to gold | church is "related_to" to bible | church is "at_location, related_to" to bell | church is "related_to" to choir | church is "related_to" to religious | church is "related_to" to titular | church is "has_context" to historical | church is "related_to" to england | church is "related_to" to evangelist</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>angel "related_to" gold | angel "related_to" bible | angel "related_to" religious | angel "has_context" historical | angel "related_to" england | church "related_to" bible | church "related_to" bell | church "related_to" religious | church "related_to" religious | church "related_to" religious | church "has_context" historical | church "related_to" england</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>gold "at_location" church | bell "related_to" angel | bell "at_location" church | bell "related_to" church | choir "related_to" angel | choir "related_to" church | choir "related_to" church | titular "related_to" angel | titular "related_to" church | evangelist "related_to" angel | evangelist "related_to" church</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4894,7 +5836,17 @@
           <t>angel is "related_to" to religious | angel is "related_to" to being | angel is "related_to" to person | angel is "related_to" to spiritual | faith is "related_to" to religious | faith is "related_to" to being | faith is "related_to, desires" to person | faith is "related_to" to spiritual</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>angel "related_to" religious | angel "related_to" being | angel "related_to" person | angel "related_to" spiritual | faith "related_to" religious | faith "related_to" religious | faith "related_to" being | faith "related_to" person | faith "related_to" spiritual</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>person "desires" faith</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4933,7 +5885,17 @@
           <t>church is "is_a, related_to" to temple | church is "related_to, at_location" to god | church is "form_of, related_to" to churches | church is "is_a, related_to" to religion | church is "related_to" to protestantism | church is "used_for, related_to" to worship | church is "related_to, used_for" to praying | church is "related_to" to christianity | church is "related_to" to nicene_creed | church is "related_to" to religious | church is "related_to" to pray | church is "related_to" to observance | church is "related_to" to synagogue | church is "is_a, related_to" to place_of_worship | church is "used_for" to practice | church is "synonym, related_to, is_a" to house_of_worship | faith is "related_to" to temple | faith is "related_to" to god | faith is "related_to" to churches | faith is "related_to, synonym" to religion | faith is "related_to" to protestantism | faith is "used_for" to worship | faith is "has_prerequisite" to praying | faith is "is_a" to christianity | faith is "related_to" to nicene_creed | faith is "related_to" to religious | faith is "causes_desire" to pray | faith is "related_to" to observance | faith is "at_location" to synagogue | faith is "related_to" to place_of_worship | faith is "related_to" to practice | faith is "related_to" to house_of_worship</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>church "related_to" temple | church "is_a" temple | church "related_to" god | church "is_a" religion | church "related_to" religion | church "related_to" religion | church "is_a" religion | church "related_to" worship | church "related_to" worship | church "used_for" worship | church "related_to" praying | church "used_for" praying | church "related_to" christianity | church "related_to" christianity | church "related_to" religious | church "related_to" religious | church "related_to" religious | church "related_to" synagogue | church "is_a" place_of_worship | church "is_a" place_of_worship | church "used_for" practice | church "is_a" house_of_worship | church "related_to" house_of_worship | church "related_to" house_of_worship | church "is_a" house_of_worship | faith "related_to" god | faith "related_to" churches | faith "related_to" religion | faith "synonym" religion | faith "synonym" religion | faith "synonym" religion | faith "used_for" worship | faith "related_to" religious | faith "related_to" religious | faith "causes_desire" pray | faith "related_to" observance | faith "at_location" synagogue | faith "related_to" practice</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>temple "related_to" church | temple "related_to" church | temple "related_to" faith | god "at_location" church | god "related_to" church | churches "form_of" church | churches "form_of" church | churches "related_to" church | churches "form_of" church | religion "related_to" church | religion "related_to" faith | religion "synonym" faith | protestantism "related_to" church | protestantism "related_to" faith | praying "has_prerequisite" faith | christianity "is_a" faith | nicene_creed "related_to" church | nicene_creed "related_to" faith | pray "related_to" church | observance "related_to" church | synagogue "related_to" church | place_of_worship "related_to" church | place_of_worship "related_to" faith | house_of_worship "related_to" church | house_of_worship "synonym" church | house_of_worship "related_to" faith</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4957,6 +5919,8 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4980,6 +5944,8 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5018,7 +5984,17 @@
           <t>body is "related_to" to shell | body is "has_context" to slang | body is "distinct_from, antonym, at_location, part_of, related_to" to head | body is "related_to" to bone | body is "related_to" to four | body is "is_a" to school | scull is "is_a" to shell | scull is "has_context" to slang | scull is "related_to" to head | scull is "related_to" to bone | scull is "related_to" to four | scull is "etymologically_related_to" to school</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>body "related_to" shell | body "has_context" slang | body "antonym" head | body "distinct_from" head | body "related_to" head | body "related_to" bone | body "related_to" four | scull "is_a" shell | scull "has_context" slang | scull "related_to" bone | scull "etymologically_related_to" school</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>shell "related_to" body | head "antonym" body | head "at_location" body | head "distinct_from" body | head "related_to" body | head "related_to" body | head "part_of" body | head "related_to" scull | bone "related_to" body | four "related_to" scull | school "is_a" body</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5042,6 +6018,8 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5065,6 +6043,8 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5088,6 +6068,8 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5126,7 +6108,17 @@
           <t>cello is "used_for" to music | cello is "at_location" to music_shop | cello is "is_a" to musical_instrument | cello is "at_location" to music_store | cello is "is_a, related_to" to instrument | cello is "at_location" to band | trumpet is "has_context, related_to" to music | trumpet is "at_location" to music_shop | trumpet is "related_to, is_a, has_context" to musical_instrument | trumpet is "at_location" to music_store | trumpet is "is_a, related_to" to instrument | trumpet is "related_to, at_location" to band</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>cello "used_for" music | cello "at_location" music_shop | cello "is_a" musical_instrument | cello "at_location" music_store | cello "is_a" instrument | cello "at_location" band | trumpet "related_to" music | trumpet "has_context" music | trumpet "at_location" music_shop | trumpet "has_context" musical_instrument | trumpet "is_a" musical_instrument | trumpet "related_to" musical_instrument | trumpet "related_to" musical_instrument | trumpet "at_location" music_store | trumpet "is_a" instrument | trumpet "related_to" instrument | trumpet "at_location" band | trumpet "related_to" band</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>instrument "related_to" cello</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5150,6 +6142,8 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5173,6 +6167,8 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5211,7 +6207,17 @@
           <t>desk is "related_to" to for_writing | desk is "related_to" to like | desk is "related_to, used_for" to write | desk is "related_to, used_for" to writing | quill is "related_to" to for_writing | quill is "related_to" to like | quill is "related_to, used_for" to write | quill is "related_to, used_for" to writing</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>desk "related_to" for_writing | desk "related_to" like | desk "related_to" write | desk "used_for" write | desk "related_to" writing | desk "used_for" writing | quill "related_to" for_writing | quill "related_to" like | quill "related_to" write | quill "used_for" write | quill "related_to" writing | quill "used_for" writing</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>writing "related_to" desk</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5250,7 +6256,17 @@
           <t>desk is "at_location" to desk_drawer | desk is "not_has_property" to alive | desk is "at_location" to staple_remover | desk is "at_location, related_to, used_for" to work | desk is "at_location" to office_building | desk is "derived_from, related_to" to desktop | desk is "at_location" to staples | desk is "receives_action" to found_in_office | stapler is "at_location" to desk_drawer | stapler is "not_has_property" to alive | stapler is "related_to" to staple_remover | stapler is "at_location" to work | stapler is "at_location" to office_building | stapler is "at_location" to desktop | stapler is "at_location" to staples | stapler is "receives_action" to found_in_office</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>desk "not_has_property" alive | desk "related_to" work | desk "used_for" work | desk "used_for" work | desk "at_location" office_building | desk "receives_action" found_in_office | stapler "at_location" desk_drawer | stapler "not_has_property" alive | stapler "related_to" staple_remover | stapler "at_location" work | stapler "at_location" office_building | stapler "at_location" desktop | stapler "receives_action" found_in_office</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>desk_drawer "at_location" desk | staple_remover "at_location" desk | work "at_location" desk | desktop "derived_from" desk | desktop "related_to" desk | staples "at_location" desk | staples "at_location" stapler</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5274,6 +6290,8 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5312,7 +6330,17 @@
           <t>arrest is "capable_of" to police | badge is "related_to" to police | deputy is "related_to" to police</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>badge "related_to" police | deputy "related_to" police</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>police "capable_of" arrest</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5351,7 +6379,17 @@
           <t>arrest is "has_context" to nautical | arrest is "capable_of" to police | badge is "has_context" to nautical | badge is "related_to" to police</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>arrest "has_context" nautical | badge "has_context" nautical | badge "related_to" police</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>police "capable_of" arrest</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5390,7 +6428,17 @@
           <t>arrest is "related_to" to provost | arrest is "capable_of" to police | arrest is "related_to" to law | deputy is "related_to" to provost | deputy is "related_to" to police | deputy is "related_to" to law</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>arrest "related_to" law | deputy "related_to" police | deputy "related_to" law</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>provost "related_to" arrest | provost "related_to" deputy | police "capable_of" arrest | law "related_to" arrest</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5429,7 +6477,17 @@
           <t>badge is "related_to" to agent | badge is "related_to" to officer | badge is "related_to" to police | deputy is "is_a, synonym" to agent | deputy is "related_to" to officer | deputy is "related_to" to police</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>badge "related_to" police | deputy "synonym" agent | deputy "is_a" agent | deputy "related_to" officer | deputy "related_to" police</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>agent "related_to" badge | officer "related_to" badge</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5453,6 +6511,8 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5476,6 +6536,8 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5499,6 +6561,8 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5522,6 +6586,8 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5545,6 +6611,8 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5568,6 +6636,8 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5606,7 +6676,17 @@
           <t>diet is "has_subevent" to getting_in_shape | diet is "has_subevent, related_to, has_prerequisite" to losing_weight | diet is "is_a" to performing | sweat is "causes" to getting_in_shape | sweat is "has_subevent" to losing_weight | sweat is "has_subevent" to performing</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>diet "related_to" losing_weight | diet "is_a" performing</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>getting_in_shape "has_subevent" diet | getting_in_shape "causes" sweat | losing_weight "has_prerequisite" diet | losing_weight "has_subevent" diet | losing_weight "has_subevent" sweat | performing "has_subevent" sweat</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5645,7 +6725,17 @@
           <t>strain is "related_to, is_a" to effort | strain is "related_to" to liquid | strain is "related_to, synonym" to stress | sweat is "synonym" to effort | sweat is "related_to" to liquid | sweat is "related_to" to stress</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>strain "is_a" effort | strain "related_to" liquid | strain "related_to" stress | strain "synonym" stress | sweat "synonym" effort | sweat "related_to" liquid | sweat "related_to" stress</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>effort "related_to" strain | stress "related_to" strain | stress "related_to" strain</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5669,6 +6759,8 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5707,7 +6799,13 @@
           <t>assault is "has_context" to military | cop is "has_context" to military</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>assault "has_context" military | cop "has_context" military</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5746,7 +6844,17 @@
           <t>assault is "related_to" to malky | assault is "related_to" to self_defense | assault is "has_context" to legal | assault is "related_to, is_a" to crime | assault is "related_to" to drygulch | assault is "related_to" to crime_of_passion | murder is "related_to" to malky | murder is "related_to" to self_defense | murder is "has_context" to legal | murder is "related_to, is_a" to crime | murder is "related_to" to drygulch | murder is "related_to" to crime_of_passion</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>assault "has_context" legal | assault "is_a" crime | assault "related_to" crime | assault "related_to" crime | murder "has_context" legal | murder "is_a" crime | murder "related_to" crime</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>malky "related_to" assault | malky "related_to" murder | self_defense "related_to" assault | self_defense "related_to" murder | crime "related_to" murder | drygulch "related_to" assault | drygulch "related_to" murder | crime_of_passion "related_to" assault | crime_of_passion "related_to" murder</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5785,7 +6893,17 @@
           <t>cop is "related_to" to top | murder is "related_to" to top</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>cop "related_to" top</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>top "related_to" murder</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5809,6 +6927,8 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5847,7 +6967,17 @@
           <t>drill is "related_to" to dig | drill is "used_for, related_to" to hole | grave is "related_to" to dig | grave is "related_to" to hole</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>drill "related_to" dig | drill "related_to" hole | drill "related_to" hole | drill "related_to" hole | drill "used_for" hole | drill "used_for" hole | grave "related_to" dig | grave "related_to" hole</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>dig "related_to" drill</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5886,7 +7016,13 @@
           <t>drill is "has_context" to music | drill is "related_to" to hit | drill is "related_to" to hair | drill is "related_to" to implement | drill is "related_to, has_context" to military | spike is "has_context" to music | spike is "related_to" to hit | spike is "related_to" to hair | spike is "is_a" to implement | spike is "has_context" to military</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>drill "has_context" music | drill "related_to" hit | drill "related_to" hair | drill "related_to" implement | drill "related_to" military | drill "has_context" military | spike "has_context" music | spike "related_to" hit | spike "related_to" hair | spike "is_a" implement | spike "has_context" military</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5925,7 +7061,17 @@
           <t>grave is "related_to" to high | spike is "related_to" to high</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>spike "related_to" high</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>high "related_to" grave</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5949,6 +7095,8 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5987,7 +7135,17 @@
           <t>care is "related_to" to kid_glove | tactful is "synonym" to kid_glove</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>tactful "synonym" kid_glove</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>kid_glove "related_to" care</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6011,6 +7169,8 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6034,6 +7194,8 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6057,6 +7219,8 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6080,6 +7244,8 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6103,6 +7269,8 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6142,6 +7310,12 @@
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>fenrir "related_to" saturn | fenrir "related_to" wolf</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6165,6 +7339,8 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6203,7 +7379,17 @@
           <t>bloom is "related_to" to opening | opportunity is "is_a, related_to" to opening</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>bloom "related_to" opening | opportunity "related_to" opening</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>opening "related_to" opportunity | opening "is_a" opportunity</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6242,7 +7428,17 @@
           <t>bloom is "synonym" to take_off | split is "synonym" to take_off</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>split "synonym" take_off</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>take_off "synonym" bloom</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6281,7 +7477,13 @@
           <t>opportunity is "at_location" to fork_in_road | split is "at_location" to fork_in_road</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>opportunity "at_location" fork_in_road | split "at_location" fork_in_road</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6305,6 +7507,8 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6328,6 +7532,8 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6351,6 +7557,8 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6374,6 +7582,8 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6397,6 +7607,8 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6435,7 +7647,13 @@
           <t>duck is "related_to" to food | sardine is "related_to" to food</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>duck "related_to" food | sardine "related_to" food</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6474,7 +7692,13 @@
           <t>duck is "has_context" to slang | sinker is "has_context" to slang</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>duck "has_context" slang | sinker "has_context" slang</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6498,6 +7722,8 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6521,6 +7747,8 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6560,6 +7788,12 @@
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>st_george's_mushroom "related_to" europe | st_george's_mushroom "related_to" mushroom</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6598,7 +7832,13 @@
           <t>europe is "is_a" to collection | pack is "is_a" to collection</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>europe "is_a" collection | pack "is_a" collection</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6637,7 +7877,17 @@
           <t>mushroom is "manner_of" to pick | pack is "related_to" to pick</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>mushroom "manner_of" pick</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>pick "related_to" pack</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6650,7 +7900,9 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>38.83%</t>
         </is>
